--- a/PythonResources/Data/Consumption/Sympheny/post_1657_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1657_coo.xlsx
@@ -367,7 +367,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.578164097508252</v>
+        <v>1.578164097508251</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -519,7 +519,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>7.685494917855119</v>
+        <v>7.685494917855118</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>6.130840979068281</v>
+        <v>6.13084097906828</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.7614102812837216</v>
+        <v>0.7614102812837215</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.170996986643581</v>
+        <v>2.17099698664358</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1.403593402619235</v>
+        <v>1.403593402619234</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>8.321517685957971</v>
+        <v>8.32151768595797</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>3.011363536453056</v>
+        <v>3.011363536453055</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>1.209372294587975</v>
+        <v>1.209372294587974</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>0.4536944828204688</v>
+        <v>0.4536944828204687</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>1.213624755358951</v>
+        <v>1.21362475535895</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>0.06478012931466511</v>
+        <v>0.06478012931466499</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>0.8560458503778565</v>
+        <v>0.8560458503778564</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>0.692125357033793</v>
+        <v>0.6921253570337929</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>39.28617273255334</v>
+        <v>39.28617273255333</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>29.98146032609429</v>
+        <v>29.98146032609428</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>4.854428684386524</v>
+        <v>4.854428684386523</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>2.367700406372303</v>
+        <v>2.367700406372302</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>1.181448486024322</v>
+        <v>1.181448486024321</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>0.932724956933211</v>
+        <v>0.9327249569332108</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>0.8177150892313392</v>
+        <v>0.8177150892313391</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>6.768710094714699</v>
+        <v>6.768710094714698</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>4.069115529189583</v>
+        <v>4.069115529189582</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>1.876179244591814</v>
+        <v>1.876179244591813</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>0.7533361741686014</v>
+        <v>0.7533361741686013</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>0.7791205641500266</v>
+        <v>0.7791205641500265</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>0.93131528523725</v>
+        <v>0.9313152852372498</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>6.071552707947091</v>
+        <v>6.07155270794709</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>5.657326101903145</v>
+        <v>5.657326101903144</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>2.651671589283213</v>
+        <v>2.651671589283212</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>0.9810494404980802</v>
+        <v>0.98104944049808</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>0.7796920526754163</v>
+        <v>0.7796920526754162</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>0.7066118584748232</v>
+        <v>0.7066118584748231</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>4.62351801302525</v>
+        <v>4.623518013025249</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>0.8359909992022607</v>
+        <v>0.8359909992022606</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>0.7235425723782891</v>
+        <v>0.723542572378289</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>0.4344133391869389</v>
+        <v>0.4344133391869388</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>0.5891841547039954</v>
+        <v>0.5891841547039953</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>0.5202802228043265</v>
+        <v>0.5202802228043264</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>0.7889003447101558</v>
+        <v>0.7889003447101557</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>0.717493586140319</v>
+        <v>0.7174935861403189</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>0.6103907750615303</v>
+        <v>0.6103907750615302</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>0.583220159067237</v>
+        <v>0.5832201590672369</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>0.648871002437765</v>
+        <v>0.6488710024377649</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>0.8846144152265645</v>
+        <v>0.8846144152265644</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>0.7627613387719504</v>
+        <v>0.7627613387719503</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>0.3804970602044112</v>
+        <v>0.3804970602044111</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>0.8113759626650944</v>
+        <v>0.8113759626650943</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>0.4352456609367371</v>
+        <v>0.435245660936737</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>0.6970636040352366</v>
+        <v>0.6970636040352365</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>0.6275881836101781</v>
+        <v>0.627588183610178</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>601</v>
       </c>
       <c r="B601">
-        <v>0.8235413414799267</v>
+        <v>0.8235413414799266</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>0.8651457061282913</v>
+        <v>0.8651457061282912</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>0.3176479759634857</v>
+        <v>0.3176479759634856</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>0.2876882028942524</v>
+        <v>0.2876882028942523</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>0.3643488459741711</v>
+        <v>0.364348845974171</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>671</v>
       </c>
       <c r="B671">
-        <v>0.6899449085061525</v>
+        <v>0.6899449085061524</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>0.5167369939469109</v>
+        <v>0.5167369939469107</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>0.4168349382880314</v>
+        <v>0.4168349382880313</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>0.4639461077528427</v>
+        <v>0.4639461077528426</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>0.8652365581502763</v>
+        <v>0.8652365581502762</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>0.7503204731807762</v>
+        <v>0.7503204731807761</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>0.3496425412541448</v>
+        <v>0.3496425412541447</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>721</v>
       </c>
       <c r="B721">
-        <v>0.7637812259864919</v>
+        <v>0.7637812259864918</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>0.5321847683947504</v>
+        <v>0.5321847683947503</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>0.5494525139926768</v>
+        <v>0.5494525139926767</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>0.8231691412608269</v>
+        <v>0.8231691412608267</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>0.441751837995019</v>
+        <v>0.4417518379950189</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>0.7846889138845922</v>
+        <v>0.7846889138845921</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>829</v>
       </c>
       <c r="B829">
-        <v>0.9916234435729816</v>
+        <v>0.9916234435729814</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>2.135532460255172</v>
+        <v>2.135532460255171</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>5.586989052624422</v>
+        <v>5.586989052624421</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>0.9777494606027534</v>
+        <v>0.9777494606027533</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>0.5403233511383759</v>
+        <v>0.5403233511383758</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>0.0719753163848398</v>
+        <v>0.0719753163848397</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>0.2283635909642682</v>
+        <v>0.2283635909642681</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>1.775767245325664</v>
+        <v>1.775767245325663</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>1.330551307653668</v>
+        <v>1.330551307653667</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>0.5181701113259648</v>
+        <v>0.5181701113259647</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>0.5978268196341184</v>
+        <v>0.5978268196341183</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>0.8613328519153072</v>
+        <v>0.8613328519153071</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>7.776933081917459</v>
+        <v>7.776933081917458</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>6.148249398764765</v>
+        <v>6.148249398764764</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>0.7123384665702659</v>
+        <v>0.7123384665702658</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>1036</v>
       </c>
       <c r="B1036">
-        <v>0.5523070259092383</v>
+        <v>0.5523070259092382</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>4.737581261272245</v>
+        <v>4.737581261272244</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>5.725347889976444</v>
+        <v>5.725347889976443</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>0.7627027245642181</v>
+        <v>0.7627027245642179</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>0.2876820484024405</v>
+        <v>0.2876820484024404</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>0.2794977465767838</v>
+        <v>0.2794977465767837</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>0.889546800807235</v>
+        <v>0.8895468008072349</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>0.8422480658776804</v>
+        <v>0.8422480658776803</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>0.4040013575050511</v>
+        <v>0.404001357505051</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>0.7039009513672058</v>
+        <v>0.7039009513672057</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>0.8494253756144968</v>
+        <v>0.8494253756144967</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>1177</v>
       </c>
       <c r="B1177">
-        <v>0.8224892164511325</v>
+        <v>0.8224892164511324</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>0.7916757274462787</v>
+        <v>0.7916757274462786</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>0.6417024848321085</v>
+        <v>0.6417024848321083</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9815,7 +9815,7 @@
         <v>1184</v>
       </c>
       <c r="B1184">
-        <v>0.822796941041727</v>
+        <v>0.8227969410417268</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9831,7 +9831,7 @@
         <v>1186</v>
       </c>
       <c r="B1186">
-        <v>0.0945036871267374</v>
+        <v>0.0945036871267373</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>3.135654963949332</v>
+        <v>3.135654963949331</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>0.4759473667860248</v>
+        <v>0.4759473667860247</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10303,7 +10303,7 @@
         <v>1245</v>
       </c>
       <c r="B1245">
-        <v>6.925444486190786</v>
+        <v>6.925444486190785</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>0.7727140312448897</v>
+        <v>0.7727140312448896</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>3.514918195080979</v>
+        <v>3.514918195080978</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>1274</v>
       </c>
       <c r="B1274">
-        <v>2.270418405799056</v>
+        <v>2.270418405799055</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>0.2962039680646351</v>
+        <v>0.296203968064635</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>0.2250466129486991</v>
+        <v>0.225046612948699</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>1.86832494075569</v>
+        <v>1.868324940755689</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>7.620022847818174</v>
+        <v>7.620022847818173</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>19.67350714008972</v>
+        <v>19.67350714008971</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10991,7 +10991,7 @@
         <v>1331</v>
       </c>
       <c r="B1331">
-        <v>17.06098398015089</v>
+        <v>17.06098398015088</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -11055,7 +11055,7 @@
         <v>1339</v>
       </c>
       <c r="B1339">
-        <v>41.62517269210954</v>
+        <v>41.62517269210953</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>1357</v>
       </c>
       <c r="B1357">
-        <v>1.084143039767982</v>
+        <v>1.084143039767981</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>1.09509217377237</v>
+        <v>1.095092173772369</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>4.801617283219749</v>
+        <v>4.801617283219748</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>1.768367201599465</v>
+        <v>1.768367201599464</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>1385</v>
       </c>
       <c r="B1385">
-        <v>2.63201238400981</v>
+        <v>2.632012384009809</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>3.143831645927984</v>
+        <v>3.143831645927983</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>2.198624793458186</v>
+        <v>2.198624793458185</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>4.161081221121513</v>
+        <v>4.161081221121512</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>6.448002457107589</v>
+        <v>6.448002457107588</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>0.9404913394577368</v>
+        <v>0.9404913394577366</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>0.8233361917528639</v>
+        <v>0.8233361917528638</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>0.6737673871720462</v>
+        <v>0.6737673871720461</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12143,7 +12143,7 @@
         <v>1475</v>
       </c>
       <c r="B1475">
-        <v>0.5266105572394115</v>
+        <v>0.5266105572394114</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>7.012310742050009</v>
+        <v>7.012310742050008</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>2.584537806457059</v>
+        <v>2.584537806457058</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>9.432344843796068</v>
+        <v>9.432344843796066</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12479,7 +12479,7 @@
         <v>1517</v>
       </c>
       <c r="B1517">
-        <v>0.9304858941978382</v>
+        <v>0.930485894197838</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>5.06045762456545</v>
+        <v>5.060457624565449</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>3.011363536453056</v>
+        <v>3.011363536453055</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>3.881286300511527</v>
+        <v>3.881286300511526</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>1.472148579982897</v>
+        <v>1.472148579982896</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>1.538110078654406</v>
+        <v>1.538110078654405</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>21.41346989662213</v>
+        <v>21.41346989662212</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -12991,7 +12991,7 @@
         <v>1581</v>
       </c>
       <c r="B1581">
-        <v>28.55382337546328</v>
+        <v>28.55382337546327</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13031,7 +13031,7 @@
         <v>1586</v>
       </c>
       <c r="B1586">
-        <v>5.504401633929655</v>
+        <v>5.504401633929654</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>0.8201856780872544</v>
+        <v>0.8201856780872543</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>0.6715048787535807</v>
+        <v>0.6715048787535806</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>2.25898277387049</v>
+        <v>2.258982773870489</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>0.9729108577544546</v>
+        <v>0.9729108577544544</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>0.8547035850207876</v>
+        <v>0.8547035850207875</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>0.639870790840475</v>
+        <v>0.6398707908404749</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>0.6179168393343537</v>
+        <v>0.6179168393343536</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13463,7 +13463,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>0.6418021289852534</v>
+        <v>0.6418021289852532</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13527,7 +13527,7 @@
         <v>1648</v>
       </c>
       <c r="B1648">
-        <v>8.895438700968484</v>
+        <v>8.895438700968482</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13615,7 +13615,7 @@
         <v>1659</v>
       </c>
       <c r="B1659">
-        <v>0.8032959941292011</v>
+        <v>0.8032959941292009</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>0.959444243527966</v>
+        <v>0.9594442435279658</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>4.441051984354696</v>
+        <v>4.441051984354695</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13927,7 +13927,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>26.57260453990485</v>
+        <v>26.57260453990484</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>9.979303323249738</v>
+        <v>9.979303323249736</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -14135,7 +14135,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>6.123221132063086</v>
+        <v>6.123221132063085</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>1.537594273626362</v>
+        <v>1.537594273626361</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>0.8918825769853659</v>
+        <v>0.8918825769853658</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>0.9733006422358742</v>
+        <v>0.973300642235874</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>0.9644645504202346</v>
+        <v>0.9644645504202344</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>2.032008046558438</v>
+        <v>2.032008046558437</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14735,7 +14735,7 @@
         <v>1799</v>
       </c>
       <c r="B1799">
-        <v>1.860690440198562</v>
+        <v>1.860690440198561</v>
       </c>
     </row>
     <row r="1800" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>0.2378409222124988</v>
+        <v>0.2378409222124987</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>0.847453007524306</v>
+        <v>0.8474530075243059</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>0.8683050119250607</v>
+        <v>0.8683050119250606</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>1.188467537400261</v>
+        <v>1.18846753740026</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>3.20663676951311</v>
+        <v>3.206636769513109</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>1.829604395127753</v>
+        <v>1.829604395127752</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>0.7064536001139461</v>
+        <v>0.706453600113946</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>0.07684586397635269</v>
+        <v>0.0768458639763526</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>3.391212909662025</v>
+        <v>3.391212909662024</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>3.253322985971862</v>
+        <v>3.253322985971861</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>1.572469727227062</v>
+        <v>1.572469727227061</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15551,7 +15551,7 @@
         <v>1901</v>
       </c>
       <c r="B1901">
-        <v>1.308351176475071</v>
+        <v>1.30835117647507</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>1.023436304819671</v>
+        <v>1.02343630481967</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15831,7 +15831,7 @@
         <v>1936</v>
       </c>
       <c r="B1936">
-        <v>28.37868412275926</v>
+        <v>28.37868412275925</v>
       </c>
     </row>
     <row r="1937" spans="1:2">
@@ -15847,7 +15847,7 @@
         <v>1938</v>
       </c>
       <c r="B1938">
-        <v>48.91648706296515</v>
+        <v>48.91648706296514</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>5.291221760407393</v>
+        <v>5.291221760407392</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>1.771822509145282</v>
+        <v>1.771822509145281</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>2.546432710010311</v>
+        <v>2.54643271001031</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>1.699759271448844</v>
+        <v>1.699759271448843</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>1.946220292121489</v>
+        <v>1.946220292121488</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>1.393790176376013</v>
+        <v>1.393790176376012</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>1.889291242861523</v>
+        <v>1.889291242861522</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>1.81580367991719</v>
+        <v>1.815803679917189</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -17015,7 +17015,7 @@
         <v>2084</v>
       </c>
       <c r="B2084">
-        <v>3.087063785739281</v>
+        <v>3.08706378573928</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17023,7 +17023,7 @@
         <v>2085</v>
       </c>
       <c r="B2085">
-        <v>3.364514138039977</v>
+        <v>3.364514138039976</v>
       </c>
     </row>
     <row r="2086" spans="1:2">
@@ -17215,7 +17215,7 @@
         <v>2109</v>
       </c>
       <c r="B2109">
-        <v>7.113097872245646</v>
+        <v>7.113097872245645</v>
       </c>
     </row>
     <row r="2110" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>0.897401104643359</v>
+        <v>0.8974011046433589</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17423,7 +17423,7 @@
         <v>2135</v>
       </c>
       <c r="B2135">
-        <v>6.773194081606217</v>
+        <v>6.773194081606216</v>
       </c>
     </row>
     <row r="2136" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>1.016566719673449</v>
+        <v>1.016566719673448</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>4.091388928127845</v>
+        <v>4.091388928127844</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>20.00793050230618</v>
+        <v>20.00793050230617</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>7.041354081981348</v>
+        <v>7.041354081981347</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18015,7 +18015,7 @@
         <v>2209</v>
       </c>
       <c r="B2209">
-        <v>4.134675520538126</v>
+        <v>4.134675520538125</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
@@ -18119,7 +18119,7 @@
         <v>2222</v>
       </c>
       <c r="B2222">
-        <v>18.08397774770218</v>
+        <v>18.08397774770217</v>
       </c>
     </row>
     <row r="2223" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>29.32410198637689</v>
+        <v>29.32410198637688</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>11.37095115033314</v>
+        <v>11.37095115033313</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18207,7 +18207,7 @@
         <v>2233</v>
       </c>
       <c r="B2233">
-        <v>7.277246960999865</v>
+        <v>7.277246960999864</v>
       </c>
     </row>
     <row r="2234" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>4.11849799920402</v>
+        <v>4.118497999204019</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18287,7 +18287,7 @@
         <v>2243</v>
       </c>
       <c r="B2243">
-        <v>28.73555672653718</v>
+        <v>28.73555672653717</v>
       </c>
     </row>
     <row r="2244" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>31.40197565048583</v>
+        <v>31.40197565048582</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18319,7 +18319,7 @@
         <v>2247</v>
       </c>
       <c r="B2247">
-        <v>45.2859230360284</v>
+        <v>45.28592303602839</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>41.507944276645</v>
+        <v>41.50794427664499</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18495,7 +18495,7 @@
         <v>2269</v>
       </c>
       <c r="B2269">
-        <v>3.113616021841999</v>
+        <v>3.113616021841998</v>
       </c>
     </row>
     <row r="2270" spans="1:2">
@@ -18583,7 +18583,7 @@
         <v>2280</v>
       </c>
       <c r="B2280">
-        <v>5.127834656353693</v>
+        <v>5.127834656353692</v>
       </c>
     </row>
     <row r="2281" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>2.081964935808651</v>
+        <v>2.08196493580865</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18735,7 +18735,7 @@
         <v>2299</v>
       </c>
       <c r="B2299">
-        <v>32.585689575639</v>
+        <v>32.58568957563899</v>
       </c>
     </row>
     <row r="2300" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>5.633997647225702</v>
+        <v>5.633997647225701</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>46.61587940947359</v>
+        <v>46.61587940947358</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>2.076036108696532</v>
+        <v>2.076036108696531</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19039,7 +19039,7 @@
         <v>2337</v>
       </c>
       <c r="B2337">
-        <v>17.45607304737025</v>
+        <v>17.45607304737024</v>
       </c>
     </row>
     <row r="2338" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>4.247449256215012</v>
+        <v>4.247449256215011</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>1.228424842811349</v>
+        <v>1.228424842811348</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>0.91956313658693</v>
+        <v>0.9195631365869298</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19431,7 +19431,7 @@
         <v>2386</v>
       </c>
       <c r="B2386">
-        <v>4.282178174296381</v>
+        <v>4.28217817429638</v>
       </c>
     </row>
     <row r="2387" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>8.57824791582531</v>
+        <v>8.578247915825308</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>6.382442465759046</v>
+        <v>6.382442465759045</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19607,7 +19607,7 @@
         <v>2408</v>
       </c>
       <c r="B2408">
-        <v>0.7553847407288443</v>
+        <v>0.7553847407288442</v>
       </c>
     </row>
     <row r="2409" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>6.831427296988227</v>
+        <v>6.831427296988226</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>51.32670328491605</v>
+        <v>51.32670328491604</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>5.438343421815389</v>
+        <v>5.438343421815388</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>27.25414124031181</v>
+        <v>27.2541412403118</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20111,7 +20111,7 @@
         <v>2471</v>
       </c>
       <c r="B2471">
-        <v>5.446432182482441</v>
+        <v>5.44643218248244</v>
       </c>
     </row>
     <row r="2472" spans="1:2">
@@ -20303,7 +20303,7 @@
         <v>2495</v>
       </c>
       <c r="B2495">
-        <v>3.157488756329602</v>
+        <v>3.157488756329601</v>
       </c>
     </row>
     <row r="2496" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>17.73756778000447</v>
+        <v>17.73756778000446</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20455,7 +20455,7 @@
         <v>2514</v>
       </c>
       <c r="B2514">
-        <v>63.10141840521292</v>
+        <v>63.10141840521291</v>
       </c>
     </row>
     <row r="2515" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>7.381463022347839</v>
+        <v>7.381463022347838</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20871,7 +20871,7 @@
         <v>2566</v>
       </c>
       <c r="B2566">
-        <v>3.235562881028985</v>
+        <v>3.235562881028984</v>
       </c>
     </row>
     <row r="2567" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>0.9333960896117456</v>
+        <v>0.9333960896117454</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>6.533374050669639</v>
+        <v>6.533374050669638</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>4.79130118265887</v>
+        <v>4.791301182658869</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21079,7 +21079,7 @@
         <v>2592</v>
       </c>
       <c r="B2592">
-        <v>1.956659482518606</v>
+        <v>1.956659482518605</v>
       </c>
     </row>
     <row r="2593" spans="1:2">
@@ -21151,7 +21151,7 @@
         <v>2601</v>
       </c>
       <c r="B2601">
-        <v>4.041420316036086</v>
+        <v>4.041420316036085</v>
       </c>
     </row>
     <row r="2602" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>23.81703340599542</v>
+        <v>23.81703340599541</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21439,7 +21439,7 @@
         <v>2637</v>
       </c>
       <c r="B2637">
-        <v>21.48747033388412</v>
+        <v>21.48747033388411</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>3.950568294051069</v>
+        <v>3.950568294051068</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>24.25517460879413</v>
+        <v>24.25517460879412</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>50.93691880349646</v>
+        <v>50.93691880349645</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>0.8789610748907871</v>
+        <v>0.878961074890787</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>0.8819533301955195</v>
+        <v>0.8819533301955194</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>2.028036933984577</v>
+        <v>2.028036933984576</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22367,7 +22367,7 @@
         <v>2753</v>
       </c>
       <c r="B2753">
-        <v>27.96920526754162</v>
+        <v>27.96920526754161</v>
       </c>
     </row>
     <row r="2754" spans="1:2">
@@ -22399,7 +22399,7 @@
         <v>2757</v>
       </c>
       <c r="B2757">
-        <v>25.52616508926065</v>
+        <v>25.52616508926064</v>
       </c>
     </row>
     <row r="2758" spans="1:2">
@@ -22463,7 +22463,7 @@
         <v>2765</v>
       </c>
       <c r="B2765">
-        <v>2.312685110994795</v>
+        <v>2.312685110994794</v>
       </c>
     </row>
     <row r="2766" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>36.07089036739972</v>
+        <v>36.07089036739971</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22631,7 +22631,7 @@
         <v>2786</v>
       </c>
       <c r="B2786">
-        <v>2.832077328551978</v>
+        <v>2.832077328551977</v>
       </c>
     </row>
     <row r="2787" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>8.531151399912432</v>
+        <v>8.53115139991243</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>5.282488243455284</v>
+        <v>5.282488243455283</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>4.406645444415855</v>
+        <v>4.406645444415854</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>19.2266324203389</v>
+        <v>19.22663242033889</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>2.775576163008457</v>
+        <v>2.775576163008456</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>2.381764885517661</v>
+        <v>2.38176488551766</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>4.918288863710831</v>
+        <v>4.91828886371083</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>2.386700201808718</v>
+        <v>2.386700201808717</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>36.64179275071202</v>
+        <v>36.64179275071201</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>66.80993932843359</v>
+        <v>66.80993932843357</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23775,7 +23775,7 @@
         <v>2929</v>
       </c>
       <c r="B2929">
-        <v>33.25828760936679</v>
+        <v>33.25828760936678</v>
       </c>
     </row>
     <row r="2930" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>2932</v>
       </c>
       <c r="B2932">
-        <v>8.626604637204432</v>
+        <v>8.62660463720443</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -23919,7 +23919,7 @@
         <v>2947</v>
       </c>
       <c r="B2947">
-        <v>47.32423210991806</v>
+        <v>47.32423210991805</v>
       </c>
     </row>
     <row r="2948" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>35.63274916460101</v>
+        <v>35.632749164601</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>9.240764305823149</v>
+        <v>9.240764305823143</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24039,7 +24039,7 @@
         <v>2962</v>
       </c>
       <c r="B2962">
-        <v>16.89783133292812</v>
+        <v>16.89783133292811</v>
       </c>
     </row>
     <row r="2963" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>4.300641649732046</v>
+        <v>4.300641649732045</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24183,7 +24183,7 @@
         <v>2980</v>
       </c>
       <c r="B2980">
-        <v>2.24231582390182</v>
+        <v>2.242315823901819</v>
       </c>
     </row>
     <row r="2981" spans="1:2">
@@ -24383,7 +24383,7 @@
         <v>3005</v>
       </c>
       <c r="B3005">
-        <v>2.432756315534348</v>
+        <v>2.432756315534347</v>
       </c>
     </row>
     <row r="3006" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>40.45552617681211</v>
+        <v>40.4555261768121</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>38.8020193766848</v>
+        <v>38.80201937668479</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24527,7 +24527,7 @@
         <v>3023</v>
       </c>
       <c r="B3023">
-        <v>27.35856245138685</v>
+        <v>27.35856245138684</v>
       </c>
     </row>
     <row r="3024" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>7.116907795748244</v>
+        <v>7.116907795748243</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -24647,7 +24647,7 @@
         <v>3038</v>
       </c>
       <c r="B3038">
-        <v>27.88219247616307</v>
+        <v>27.88219247616306</v>
       </c>
     </row>
     <row r="3039" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>16.57431021334986</v>
+        <v>16.57431021334985</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>3.132548410939522</v>
+        <v>3.132548410939521</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>2.819891434764439</v>
+        <v>2.819891434764438</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25175,7 +25175,7 @@
         <v>3104</v>
       </c>
       <c r="B3104">
-        <v>20.594482879083</v>
+        <v>20.59448287908299</v>
       </c>
     </row>
     <row r="3105" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>51.44891390803783</v>
+        <v>51.44891390803782</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>3.180524139968384</v>
+        <v>3.180524139968383</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25415,7 +25415,7 @@
         <v>3134</v>
       </c>
       <c r="B3134">
-        <v>38.57811310314753</v>
+        <v>38.57811310314752</v>
       </c>
     </row>
     <row r="3135" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>99.667012685873</v>
+        <v>99.66701268587298</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25671,7 +25671,7 @@
         <v>3166</v>
       </c>
       <c r="B3166">
-        <v>69.05398427146351</v>
+        <v>69.05398427146349</v>
       </c>
     </row>
     <row r="3167" spans="1:2">
@@ -25719,7 +25719,7 @@
         <v>3172</v>
       </c>
       <c r="B3172">
-        <v>34.40478151260997</v>
+        <v>34.40478151260996</v>
       </c>
     </row>
     <row r="3173" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>46.3307212888561</v>
+        <v>46.33072128885609</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>3.944472416446913</v>
+        <v>3.944472416446912</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -25935,7 +25935,7 @@
         <v>3199</v>
       </c>
       <c r="B3199">
-        <v>5.056266708712593</v>
+        <v>5.056266708712592</v>
       </c>
     </row>
     <row r="3200" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>18.03811213015168</v>
+        <v>18.03811213015167</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>7.894073576070399</v>
+        <v>7.894073576070398</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -26015,7 +26015,7 @@
         <v>3209</v>
       </c>
       <c r="B3209">
-        <v>5.901893883666038</v>
+        <v>5.901893883666037</v>
       </c>
     </row>
     <row r="3210" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>2.515194267999398</v>
+        <v>2.515194267999397</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>50.94453865050166</v>
+        <v>50.94453865050165</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>2.750547896306778</v>
+        <v>2.750547896306777</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>16.94522091987966</v>
+        <v>16.94522091987965</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>9.13103850894834</v>
+        <v>9.131038508948338</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26831,7 +26831,7 @@
         <v>3311</v>
       </c>
       <c r="B3311">
-        <v>4.323149505501237</v>
+        <v>4.323149505501236</v>
       </c>
     </row>
     <row r="3312" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>2.509338708646944</v>
+        <v>2.509338708646943</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -26887,7 +26887,7 @@
         <v>3318</v>
       </c>
       <c r="B3318">
-        <v>1.79268916709797</v>
+        <v>1.792689167097969</v>
       </c>
     </row>
     <row r="3319" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>21.79244005671511</v>
+        <v>21.7924400567151</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>14.39462367040997</v>
+        <v>14.39462367040996</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>4.714018349763873</v>
+        <v>4.714018349763872</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>1.676961275351378</v>
+        <v>1.676961275351377</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>5.642672549970078</v>
+        <v>5.642672549970077</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>7.115852740009062</v>
+        <v>7.115852740009061</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>7.12907024385269</v>
+        <v>7.129070243852689</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27359,7 +27359,7 @@
         <v>3377</v>
       </c>
       <c r="B3377">
-        <v>8.421513524349223</v>
+        <v>8.421513524349221</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>82.8119111103817</v>
+        <v>82.81191111038169</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -27967,7 +27967,7 @@
         <v>3453</v>
       </c>
       <c r="B3453">
-        <v>75.94027446688914</v>
+        <v>75.94027446688912</v>
       </c>
     </row>
     <row r="3454" spans="1:2">
@@ -28023,7 +28023,7 @@
         <v>3460</v>
       </c>
       <c r="B3460">
-        <v>28.85126117260068</v>
+        <v>28.85126117260067</v>
       </c>
     </row>
     <row r="3461" spans="1:2">
@@ -28079,7 +28079,7 @@
         <v>3467</v>
       </c>
       <c r="B3467">
-        <v>46.87847106011415</v>
+        <v>46.87847106011414</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>45.23756631464928</v>
+        <v>45.23756631464927</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28119,7 +28119,7 @@
         <v>3472</v>
       </c>
       <c r="B3472">
-        <v>71.96886882198925</v>
+        <v>71.96886882198923</v>
       </c>
     </row>
     <row r="3473" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>72.68689286670954</v>
+        <v>72.68689286670953</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>70.82237491874606</v>
+        <v>70.82237491874605</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>6.874450125463712</v>
+        <v>6.874450125463711</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28567,7 +28567,7 @@
         <v>3528</v>
       </c>
       <c r="B3528">
-        <v>42.37660683523723</v>
+        <v>42.37660683523722</v>
       </c>
     </row>
     <row r="3529" spans="1:2">
@@ -28623,7 +28623,7 @@
         <v>3535</v>
       </c>
       <c r="B3535">
-        <v>6.141860450121948</v>
+        <v>6.141860450121947</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -28711,7 +28711,7 @@
         <v>3546</v>
       </c>
       <c r="B3546">
-        <v>114.7648603135509</v>
+        <v>114.7648603135508</v>
       </c>
     </row>
     <row r="3547" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>46.63639438217988</v>
+        <v>46.63639438217987</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28903,7 +28903,7 @@
         <v>3570</v>
       </c>
       <c r="B3570">
-        <v>150.9312918395542</v>
+        <v>150.9312918395541</v>
       </c>
     </row>
     <row r="3571" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>65.5588190643883</v>
+        <v>65.55881906438829</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -28943,7 +28943,7 @@
         <v>3575</v>
       </c>
       <c r="B3575">
-        <v>53.06930368079641</v>
+        <v>53.0693036807964</v>
       </c>
     </row>
     <row r="3576" spans="1:2">
@@ -28983,7 +28983,7 @@
         <v>3580</v>
       </c>
       <c r="B3580">
-        <v>14.63177675489473</v>
+        <v>14.63177675489472</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -29151,7 +29151,7 @@
         <v>3601</v>
       </c>
       <c r="B3601">
-        <v>46.21349287339156</v>
+        <v>46.21349287339155</v>
       </c>
     </row>
     <row r="3602" spans="1:2">
@@ -29183,7 +29183,7 @@
         <v>3605</v>
       </c>
       <c r="B3605">
-        <v>30.02102491631357</v>
+        <v>30.02102491631356</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>70.65942742125036</v>
+        <v>70.65942742125034</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>88.26361857156004</v>
+        <v>88.26361857156003</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>81.37732837613441</v>
+        <v>81.3773283761344</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29327,7 +29327,7 @@
         <v>3623</v>
       </c>
       <c r="B3623">
-        <v>77.65239547474872</v>
+        <v>77.6523954747487</v>
       </c>
     </row>
     <row r="3624" spans="1:2">
@@ -29367,7 +29367,7 @@
         <v>3628</v>
       </c>
       <c r="B3628">
-        <v>33.61495506341765</v>
+        <v>33.61495506341764</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>51.16580728469097</v>
+        <v>51.16580728469096</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29511,7 +29511,7 @@
         <v>3646</v>
       </c>
       <c r="B3646">
-        <v>68.25448647799536</v>
+        <v>68.25448647799534</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -29591,7 +29591,7 @@
         <v>3656</v>
       </c>
       <c r="B3656">
-        <v>4.101939485519654</v>
+        <v>4.101939485519653</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>9.188333897006633</v>
+        <v>9.188333897006631</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>19.57441982191832</v>
+        <v>19.57441982191831</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>43.31414108791487</v>
+        <v>43.31414108791486</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>53.86645690595527</v>
+        <v>53.86645690595526</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>41.54868115101893</v>
+        <v>41.54868115101892</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>8.738118167415074</v>
+        <v>8.738118167415072</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>56.29425739022585</v>
+        <v>56.29425739022584</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>75.97339149425787</v>
+        <v>75.97339149425785</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30087,7 +30087,7 @@
         <v>3718</v>
       </c>
       <c r="B3718">
-        <v>53.96317034871351</v>
+        <v>53.9631703487135</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -30159,7 +30159,7 @@
         <v>3727</v>
       </c>
       <c r="B3727">
-        <v>4.011497762988762</v>
+        <v>4.011497762988761</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -30239,7 +30239,7 @@
         <v>3737</v>
       </c>
       <c r="B3737">
-        <v>38.56287340913714</v>
+        <v>38.56287340913713</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -30295,7 +30295,7 @@
         <v>3744</v>
       </c>
       <c r="B3744">
-        <v>42.3358699608633</v>
+        <v>42.33586996086329</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -30303,7 +30303,7 @@
         <v>3745</v>
       </c>
       <c r="B3745">
-        <v>39.79318562943747</v>
+        <v>39.79318562943746</v>
       </c>
     </row>
     <row r="3746" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>82.49539438862745</v>
+        <v>82.49539438862743</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>44.69509182208713</v>
+        <v>44.69509182208712</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>86.89321839477959</v>
+        <v>86.89321839477958</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30687,7 +30687,7 @@
         <v>3793</v>
       </c>
       <c r="B3793">
-        <v>56.28898211152995</v>
+        <v>56.28898211152994</v>
       </c>
     </row>
     <row r="3794" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>61.3843151896961</v>
+        <v>61.38431518969609</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30927,7 +30927,7 @@
         <v>3823</v>
       </c>
       <c r="B3823">
-        <v>8.607086106029586</v>
+        <v>8.607086106029584</v>
       </c>
     </row>
     <row r="3824" spans="1:2">
@@ -30935,7 +30935,7 @@
         <v>3824</v>
       </c>
       <c r="B3824">
-        <v>18.47103666846222</v>
+        <v>18.47103666846221</v>
       </c>
     </row>
     <row r="3825" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>64.08379252680575</v>
+        <v>64.08379252680574</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31039,7 +31039,7 @@
         <v>3837</v>
       </c>
       <c r="B3837">
-        <v>51.72117690295422</v>
+        <v>51.72117690295421</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
@@ -31063,7 +31063,7 @@
         <v>3840</v>
       </c>
       <c r="B3840">
-        <v>22.57514487966797</v>
+        <v>22.57514487966796</v>
       </c>
     </row>
     <row r="3841" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>6.872721006335611</v>
+        <v>6.87272100633561</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31103,7 +31103,7 @@
         <v>3845</v>
       </c>
       <c r="B3845">
-        <v>5.136773323032864</v>
+        <v>5.136773323032863</v>
       </c>
     </row>
     <row r="3846" spans="1:2">
@@ -31191,7 +31191,7 @@
         <v>3856</v>
       </c>
       <c r="B3856">
-        <v>49.47918345719493</v>
+        <v>49.47918345719492</v>
       </c>
     </row>
     <row r="3857" spans="1:2">
@@ -31223,7 +31223,7 @@
         <v>3860</v>
       </c>
       <c r="B3860">
-        <v>62.32184944237374</v>
+        <v>62.32184944237373</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -31231,7 +31231,7 @@
         <v>3861</v>
       </c>
       <c r="B3861">
-        <v>51.36978472759927</v>
+        <v>51.36978472759926</v>
       </c>
     </row>
     <row r="3862" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>4.733009353069129</v>
+        <v>4.733009353069128</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>8.992298679246058</v>
+        <v>8.992298679246057</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31383,7 +31383,7 @@
         <v>3880</v>
       </c>
       <c r="B3880">
-        <v>17.89043363377023</v>
+        <v>17.89043363377022</v>
       </c>
     </row>
     <row r="3881" spans="1:2">
@@ -31487,7 +31487,7 @@
         <v>3893</v>
       </c>
       <c r="B3893">
-        <v>26.08006935233059</v>
+        <v>26.08006935233058</v>
       </c>
     </row>
     <row r="3894" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>66.23698544785066</v>
+        <v>66.23698544785064</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31647,7 +31647,7 @@
         <v>3913</v>
       </c>
       <c r="B3913">
-        <v>44.81730244520891</v>
+        <v>44.8173024452089</v>
       </c>
     </row>
     <row r="3914" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>6.475609748949488</v>
+        <v>6.475609748949487</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>24.8974984042282</v>
+        <v>24.89749840422819</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31783,7 +31783,7 @@
         <v>3930</v>
       </c>
       <c r="B3930">
-        <v>176.7889495806447</v>
+        <v>176.7889495806446</v>
       </c>
     </row>
     <row r="3931" spans="1:2">
@@ -31807,7 +31807,7 @@
         <v>3933</v>
       </c>
       <c r="B3933">
-        <v>104.0138423312981</v>
+        <v>104.013842331298</v>
       </c>
     </row>
     <row r="3934" spans="1:2">
@@ -31831,7 +31831,7 @@
         <v>3936</v>
       </c>
       <c r="B3936">
-        <v>69.90301107046542</v>
+        <v>69.90301107046541</v>
       </c>
     </row>
     <row r="3937" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>70.73357439403168</v>
+        <v>70.73357439403166</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>134.1424243188004</v>
+        <v>134.1424243188003</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>53.0458579977035</v>
+        <v>53.04585799770349</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>95.89899834180407</v>
+        <v>95.89899834180406</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32335,7 +32335,7 @@
         <v>3999</v>
       </c>
       <c r="B3999">
-        <v>73.17368386192604</v>
+        <v>73.17368386192602</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>86.10104737727798</v>
+        <v>86.10104737727796</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32431,7 +32431,7 @@
         <v>4011</v>
       </c>
       <c r="B4011">
-        <v>49.89710275832601</v>
+        <v>49.897102758326</v>
       </c>
     </row>
     <row r="4012" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>62.1386800432104</v>
+        <v>62.13868004321039</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>84.22539272984537</v>
+        <v>84.22539272984535</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>99.13919174524391</v>
+        <v>99.13919174524388</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32975,7 +32975,7 @@
         <v>4079</v>
       </c>
       <c r="B4079">
-        <v>83.15099430211288</v>
+        <v>83.15099430211286</v>
       </c>
     </row>
     <row r="4080" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>67.5437892092416</v>
+        <v>67.54378920924158</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33111,7 +33111,7 @@
         <v>4096</v>
       </c>
       <c r="B4096">
-        <v>103.8303798610961</v>
+        <v>103.830379861096</v>
       </c>
     </row>
     <row r="4097" spans="1:2">
@@ -33151,7 +33151,7 @@
         <v>4101</v>
       </c>
       <c r="B4101">
-        <v>98.7502864769403</v>
+        <v>98.75028647694027</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>34.65946024520668</v>
+        <v>34.65946024520667</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>77.94839722379668</v>
+        <v>77.94839722379666</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33343,7 +33343,7 @@
         <v>4125</v>
       </c>
       <c r="B4125">
-        <v>90.02145866145079</v>
+        <v>90.02145866145078</v>
       </c>
     </row>
     <row r="4126" spans="1:2">
@@ -33407,7 +33407,7 @@
         <v>4133</v>
       </c>
       <c r="B4133">
-        <v>43.76224670602807</v>
+        <v>43.76224670602806</v>
       </c>
     </row>
     <row r="4134" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>54.12641091724788</v>
+        <v>54.12641091724787</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>82.41186914260896</v>
+        <v>82.41186914260895</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>82.32248247581725</v>
+        <v>82.32248247581724</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33711,7 +33711,7 @@
         <v>4171</v>
       </c>
       <c r="B4171">
-        <v>112.6441982777974</v>
+        <v>112.6441982777973</v>
       </c>
     </row>
     <row r="4172" spans="1:2">
@@ -33751,7 +33751,7 @@
         <v>4176</v>
       </c>
       <c r="B4176">
-        <v>58.52628642067066</v>
+        <v>58.52628642067065</v>
       </c>
     </row>
     <row r="4177" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>52.61797428125794</v>
+        <v>52.61797428125793</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>34.03287436454873</v>
+        <v>34.03287436454872</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>175.4211870432122</v>
+        <v>175.4211870432121</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33927,7 +33927,7 @@
         <v>4198</v>
       </c>
       <c r="B4198">
-        <v>101.0652546113263</v>
+        <v>101.0652546113262</v>
       </c>
     </row>
     <row r="4199" spans="1:2">
@@ -33967,7 +33967,7 @@
         <v>4203</v>
       </c>
       <c r="B4203">
-        <v>62.09296096117923</v>
+        <v>62.09296096117922</v>
       </c>
     </row>
     <row r="4204" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>78.01726891788209</v>
+        <v>78.01726891788208</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>76.18791949455797</v>
+        <v>76.18791949455796</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>73.58896552370916</v>
+        <v>73.58896552370915</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34143,7 +34143,7 @@
         <v>4225</v>
       </c>
       <c r="B4225">
-        <v>39.16630667774085</v>
+        <v>39.16630667774084</v>
       </c>
     </row>
     <row r="4226" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>24.47993078834352</v>
+        <v>24.47993078834351</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>65.00579401443434</v>
+        <v>65.00579401443433</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>93.39998159513878</v>
+        <v>93.39998159513875</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34343,7 +34343,7 @@
         <v>4250</v>
       </c>
       <c r="B4250">
-        <v>49.74939495484069</v>
+        <v>49.74939495484068</v>
       </c>
     </row>
     <row r="4251" spans="1:2">
@@ -34351,7 +34351,7 @@
         <v>4251</v>
       </c>
       <c r="B4251">
-        <v>46.24660990076029</v>
+        <v>46.24660990076028</v>
       </c>
     </row>
     <row r="4252" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>41.91296845207498</v>
+        <v>41.91296845207497</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>49.55098586166696</v>
+        <v>49.55098586166695</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>42.62366572082874</v>
+        <v>42.62366572082873</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>63.00763567284129</v>
+        <v>63.00763567284128</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>59.59863335113252</v>
+        <v>59.59863335113251</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34783,7 +34783,7 @@
         <v>4305</v>
       </c>
       <c r="B4305">
-        <v>34.71807445293895</v>
+        <v>34.71807445293894</v>
       </c>
     </row>
     <row r="4306" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>69.16388591096151</v>
+        <v>69.1638859109615</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34863,7 +34863,7 @@
         <v>4315</v>
       </c>
       <c r="B4315">
-        <v>102.9661133680838</v>
+        <v>102.9661133680837</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>8.205139176505551</v>
+        <v>8.205139176505549</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>52.58778796427582</v>
+        <v>52.58778796427581</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35079,7 +35079,7 @@
         <v>4342</v>
       </c>
       <c r="B4342">
-        <v>67.77765989809335</v>
+        <v>67.77765989809333</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35135,7 +35135,7 @@
         <v>4349</v>
       </c>
       <c r="B4349">
-        <v>34.28257088948819</v>
+        <v>34.28257088948818</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>76.63836968098046</v>
+        <v>76.63836968098045</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35303,7 +35303,7 @@
         <v>4370</v>
       </c>
       <c r="B4370">
-        <v>55.864029105471</v>
+        <v>55.86402910547099</v>
       </c>
     </row>
     <row r="4371" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>93.05298548536376</v>
+        <v>93.05298548536372</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>85.22945410829914</v>
+        <v>85.22945410829912</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>65.05737451723874</v>
+        <v>65.05737451723873</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35495,7 +35495,7 @@
         <v>4394</v>
       </c>
       <c r="B4394">
-        <v>58.80353162324429</v>
+        <v>58.80353162324428</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>49.62454669237096</v>
+        <v>49.62454669237095</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>90.1465999949592</v>
+        <v>90.14659999495916</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35615,7 +35615,7 @@
         <v>4409</v>
       </c>
       <c r="B4409">
-        <v>79.03862148761688</v>
+        <v>79.03862148761687</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -35655,7 +35655,7 @@
         <v>4414</v>
       </c>
       <c r="B4414">
-        <v>89.5604579176365</v>
+        <v>89.56045791763648</v>
       </c>
     </row>
     <row r="4415" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>41.76262300924171</v>
+        <v>41.7626230092417</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35759,7 +35759,7 @@
         <v>4427</v>
       </c>
       <c r="B4427">
-        <v>22.91856552277133</v>
+        <v>22.91856552277132</v>
       </c>
     </row>
     <row r="4428" spans="1:2">
@@ -35807,7 +35807,7 @@
         <v>4433</v>
       </c>
       <c r="B4433">
-        <v>31.02860314723128</v>
+        <v>31.02860314723127</v>
       </c>
     </row>
     <row r="4434" spans="1:2">
@@ -35871,7 +35871,7 @@
         <v>4441</v>
       </c>
       <c r="B4441">
-        <v>43.73206038904595</v>
+        <v>43.73206038904594</v>
       </c>
     </row>
     <row r="4442" spans="1:2">
@@ -35895,7 +35895,7 @@
         <v>4444</v>
       </c>
       <c r="B4444">
-        <v>34.05602697660297</v>
+        <v>34.05602697660296</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>39.37028412064915</v>
+        <v>39.37028412064914</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>34.01763467053834</v>
+        <v>34.01763467053833</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>58.49785852992051</v>
+        <v>58.4978585299205</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36063,7 +36063,7 @@
         <v>4465</v>
       </c>
       <c r="B4465">
-        <v>61.5018366761993</v>
+        <v>61.50183667619929</v>
       </c>
     </row>
     <row r="4466" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>57.02810727103386</v>
+        <v>57.02810727103385</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36079,7 +36079,7 @@
         <v>4467</v>
       </c>
       <c r="B4467">
-        <v>50.7326482895495</v>
+        <v>50.73264828954949</v>
       </c>
     </row>
     <row r="4468" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>12.41639415944589</v>
+        <v>12.41639415944588</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>65.44159064892376</v>
+        <v>65.44159064892375</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>87.29589800190028</v>
+        <v>87.29589800190027</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36239,7 +36239,7 @@
         <v>4487</v>
       </c>
       <c r="B4487">
-        <v>84.40944134212469</v>
+        <v>84.40944134212468</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36263,7 +36263,7 @@
         <v>4490</v>
       </c>
       <c r="B4490">
-        <v>63.36401005585349</v>
+        <v>63.36401005585348</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
@@ -36391,7 +36391,7 @@
         <v>4506</v>
       </c>
       <c r="B4506">
-        <v>190.4217350860545</v>
+        <v>190.4217350860544</v>
       </c>
     </row>
     <row r="4507" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>61.93265110303148</v>
+        <v>61.93265110303147</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>88.14433865882488</v>
+        <v>88.14433865882486</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>106.2194949682634</v>
+        <v>106.2194949682633</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>55.35203400092963</v>
+        <v>55.35203400092962</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36807,7 +36807,7 @@
         <v>4558</v>
       </c>
       <c r="B4558">
-        <v>78.18812933342166</v>
+        <v>78.18812933342164</v>
       </c>
     </row>
     <row r="4559" spans="1:2">
@@ -36831,7 +36831,7 @@
         <v>4561</v>
       </c>
       <c r="B4561">
-        <v>55.06160060161624</v>
+        <v>55.06160060161623</v>
       </c>
     </row>
     <row r="4562" spans="1:2">
@@ -36839,7 +36839,7 @@
         <v>4562</v>
       </c>
       <c r="B4562">
-        <v>48.64656863635805</v>
+        <v>48.64656863635804</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>42.71275931658179</v>
+        <v>42.71275931658178</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -37007,7 +37007,7 @@
         <v>4583</v>
       </c>
       <c r="B4583">
-        <v>58.00139619042819</v>
+        <v>58.00139619042818</v>
       </c>
     </row>
     <row r="4584" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>28.88346967974956</v>
+        <v>28.88346967974955</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37199,7 +37199,7 @@
         <v>4607</v>
       </c>
       <c r="B4607">
-        <v>71.75961610038505</v>
+        <v>71.75961610038503</v>
       </c>
     </row>
     <row r="4608" spans="1:2">
@@ -37207,7 +37207,7 @@
         <v>4608</v>
       </c>
       <c r="B4608">
-        <v>62.83706832834039</v>
+        <v>62.83706832834038</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>35.35755545929801</v>
+        <v>35.357555459298</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>61.42563820614735</v>
+        <v>61.42563820614734</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37591,7 +37591,7 @@
         <v>4656</v>
       </c>
       <c r="B4656">
-        <v>65.77539856195904</v>
+        <v>65.77539856195902</v>
       </c>
     </row>
     <row r="4657" spans="1:2">
@@ -37663,7 +37663,7 @@
         <v>4665</v>
       </c>
       <c r="B4665">
-        <v>40.3790346357215</v>
+        <v>40.37903463572149</v>
       </c>
     </row>
     <row r="4666" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>74.80696876038571</v>
+        <v>74.8069687603857</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>34.41269443065383</v>
+        <v>34.41269443065382</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37863,7 +37863,7 @@
         <v>4690</v>
       </c>
       <c r="B4690">
-        <v>62.49300292895197</v>
+        <v>62.49300292895196</v>
       </c>
     </row>
     <row r="4691" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>92.60253529894126</v>
+        <v>92.60253529894123</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37967,7 +37967,7 @@
         <v>4703</v>
       </c>
       <c r="B4703">
-        <v>54.51590232762881</v>
+        <v>54.5159023276288</v>
       </c>
     </row>
     <row r="4704" spans="1:2">
@@ -38023,7 +38023,7 @@
         <v>4710</v>
       </c>
       <c r="B4710">
-        <v>39.543489104498</v>
+        <v>39.54348910449799</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>73.35714633212804</v>
+        <v>73.35714633212802</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>76.80659245717207</v>
+        <v>76.80659245717206</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38175,7 +38175,7 @@
         <v>4729</v>
       </c>
       <c r="B4729">
-        <v>55.85846075573643</v>
+        <v>55.85846075573642</v>
       </c>
     </row>
     <row r="4730" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>56.94663352228601</v>
+        <v>56.946633522286</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>66.58339541554837</v>
+        <v>66.58339541554835</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>85.85603998895709</v>
+        <v>85.85603998895708</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>90.16916646493613</v>
+        <v>90.1691664649361</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38503,7 +38503,7 @@
         <v>4770</v>
       </c>
       <c r="B4770">
-        <v>172.549970077447</v>
+        <v>172.5499700774469</v>
       </c>
     </row>
     <row r="4771" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>24.70307507718026</v>
+        <v>24.70307507718025</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>85.43606919055539</v>
+        <v>85.43606919055537</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38719,7 +38719,7 @@
         <v>4797</v>
       </c>
       <c r="B4797">
-        <v>131.336269123618</v>
+        <v>131.3362691236179</v>
       </c>
     </row>
     <row r="4798" spans="1:2">
@@ -38807,7 +38807,7 @@
         <v>4808</v>
       </c>
       <c r="B4808">
-        <v>50.08584050722392</v>
+        <v>50.08584050722391</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>68.66185522173463</v>
+        <v>68.66185522173461</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>88.92595911893468</v>
+        <v>88.92595911893467</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39151,7 +39151,7 @@
         <v>4851</v>
       </c>
       <c r="B4851">
-        <v>73.02070077974481</v>
+        <v>73.0207007797448</v>
       </c>
     </row>
     <row r="4852" spans="1:2">
@@ -39167,7 +39167,7 @@
         <v>4853</v>
       </c>
       <c r="B4853">
-        <v>61.97543947467603</v>
+        <v>61.97543947467602</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>57.94248891165726</v>
+        <v>57.94248891165725</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>98.32240276049474</v>
+        <v>98.32240276049473</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>96.25537272481628</v>
+        <v>96.25537272481624</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39263,7 +39263,7 @@
         <v>4865</v>
       </c>
       <c r="B4865">
-        <v>96.56192503125604</v>
+        <v>96.56192503125602</v>
       </c>
     </row>
     <row r="4866" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>149.8463428544299</v>
+        <v>149.8463428544298</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>72.29534995905799</v>
+        <v>72.29534995905797</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>198.0735268344636</v>
+        <v>198.0735268344635</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>79.58168212225635</v>
+        <v>79.58168212225634</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>94.28153927943212</v>
+        <v>94.2815392794321</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39743,7 +39743,7 @@
         <v>4925</v>
       </c>
       <c r="B4925">
-        <v>61.52967842487213</v>
+        <v>61.52967842487212</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>22.26100203332687</v>
+        <v>22.26100203332686</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>81.53500059493422</v>
+        <v>81.5350005949342</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>99.3894744122607</v>
+        <v>99.38947441226068</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>86.21300051404661</v>
+        <v>86.2130005140466</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>58.21768261696026</v>
+        <v>58.21768261696025</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40127,7 +40127,7 @@
         <v>4973</v>
       </c>
       <c r="B4973">
-        <v>41.52054633130744</v>
+        <v>41.52054633130743</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>48.08563066836023</v>
+        <v>48.08563066836022</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>50.90116413677978</v>
+        <v>50.90116413677977</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40447,7 +40447,7 @@
         <v>5013</v>
       </c>
       <c r="B5013">
-        <v>76.25620504656607</v>
+        <v>76.25620504656605</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40575,7 +40575,7 @@
         <v>5029</v>
       </c>
       <c r="B5029">
-        <v>43.82848076076553</v>
+        <v>43.82848076076552</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>53.5250291459148</v>
+        <v>53.52502914591479</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>73.74458624523834</v>
+        <v>73.74458624523832</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>33.8086750199728</v>
+        <v>33.80867501997279</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>5.260771679490479</v>
+        <v>5.260771679490478</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>9.032947632308389</v>
+        <v>9.032947632308383</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40863,7 +40863,7 @@
         <v>5065</v>
       </c>
       <c r="B5065">
-        <v>45.11037348387026</v>
+        <v>45.11037348387025</v>
       </c>
     </row>
     <row r="5066" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>35.02667825664935</v>
+        <v>35.02667825664934</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -41031,7 +41031,7 @@
         <v>5086</v>
       </c>
       <c r="B5086">
-        <v>79.29359329125225</v>
+        <v>79.29359329125224</v>
       </c>
     </row>
     <row r="5087" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>60.88785285020378</v>
+        <v>60.88785285020377</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>67.06491113206896</v>
+        <v>67.06491113206894</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>75.49978869578113</v>
+        <v>75.49978869578112</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41455,7 +41455,7 @@
         <v>5139</v>
       </c>
       <c r="B5139">
-        <v>56.16471999113754</v>
+        <v>56.16471999113753</v>
       </c>
     </row>
     <row r="5140" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>53.93239788965407</v>
+        <v>53.93239788965406</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41559,7 +41559,7 @@
         <v>5152</v>
       </c>
       <c r="B5152">
-        <v>75.35999381033967</v>
+        <v>75.35999381033966</v>
       </c>
     </row>
     <row r="5153" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>69.94081723445274</v>
+        <v>69.94081723445272</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41631,7 +41631,7 @@
         <v>5161</v>
       </c>
       <c r="B5161">
-        <v>65.33696428812166</v>
+        <v>65.33696428812165</v>
       </c>
     </row>
     <row r="5162" spans="1:2">
@@ -41647,7 +41647,7 @@
         <v>5163</v>
       </c>
       <c r="B5163">
-        <v>49.70367587280952</v>
+        <v>49.70367587280951</v>
       </c>
     </row>
     <row r="5164" spans="1:2">
@@ -41839,7 +41839,7 @@
         <v>5187</v>
       </c>
       <c r="B5187">
-        <v>64.50640096455541</v>
+        <v>64.5064009645554</v>
       </c>
     </row>
     <row r="5188" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>24.51082047581842</v>
+        <v>24.51082047581841</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42143,7 +42143,7 @@
         <v>5225</v>
       </c>
       <c r="B5225">
-        <v>60.49279309008829</v>
+        <v>60.49279309008828</v>
       </c>
     </row>
     <row r="5226" spans="1:2">
@@ -42183,7 +42183,7 @@
         <v>5230</v>
       </c>
       <c r="B5230">
-        <v>43.01872548094424</v>
+        <v>43.01872548094423</v>
       </c>
     </row>
     <row r="5231" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>7.730598550705101</v>
+        <v>7.7305985507051</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>38.65431157319948</v>
+        <v>38.65431157319947</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42319,7 +42319,7 @@
         <v>5247</v>
       </c>
       <c r="B5247">
-        <v>58.53097555728924</v>
+        <v>58.53097555728923</v>
       </c>
     </row>
     <row r="5248" spans="1:2">
@@ -42351,7 +42351,7 @@
         <v>5251</v>
       </c>
       <c r="B5251">
-        <v>90.42882740519006</v>
+        <v>90.42882740519003</v>
       </c>
     </row>
     <row r="5252" spans="1:2">
@@ -42367,7 +42367,7 @@
         <v>5253</v>
       </c>
       <c r="B5253">
-        <v>62.79838295123709</v>
+        <v>62.79838295123708</v>
       </c>
     </row>
     <row r="5254" spans="1:2">
@@ -42447,7 +42447,7 @@
         <v>5263</v>
       </c>
       <c r="B5263">
-        <v>13.36175340885579</v>
+        <v>13.36175340885578</v>
       </c>
     </row>
     <row r="5264" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>27.63006346160272</v>
+        <v>27.63006346160271</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>62.59733621871541</v>
+        <v>62.5973362187154</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42631,7 +42631,7 @@
         <v>5286</v>
       </c>
       <c r="B5286">
-        <v>23.08151302026704</v>
+        <v>23.08151302026703</v>
       </c>
     </row>
     <row r="5287" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>7.853922843773795</v>
+        <v>7.853922843773794</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>8.592256711473322</v>
+        <v>8.59225671147332</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43087,7 +43087,7 @@
         <v>5343</v>
       </c>
       <c r="B5343">
-        <v>73.40081391688858</v>
+        <v>73.40081391688857</v>
       </c>
     </row>
     <row r="5344" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>42.12427267094981</v>
+        <v>42.1242726709498</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>60.01391501291565</v>
+        <v>60.01391501291564</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>73.32139166541135</v>
+        <v>73.32139166541134</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>82.91331368975852</v>
+        <v>82.91331368975851</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43279,7 +43279,7 @@
         <v>5367</v>
       </c>
       <c r="B5367">
-        <v>104.0715773259144</v>
+        <v>104.0715773259143</v>
       </c>
     </row>
     <row r="5368" spans="1:2">
@@ -43375,7 +43375,7 @@
         <v>5379</v>
       </c>
       <c r="B5379">
-        <v>60.31489896962085</v>
+        <v>60.31489896962084</v>
       </c>
     </row>
     <row r="5380" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>57.74876895510211</v>
+        <v>57.7487689551021</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>95.36443676728578</v>
+        <v>95.36443676728577</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>7.366692241999308</v>
+        <v>7.366692241999307</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>52.6918281830006</v>
+        <v>52.69182818300059</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>24.27615849516228</v>
+        <v>24.27615849516227</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -43991,7 +43991,7 @@
         <v>5456</v>
       </c>
       <c r="B5456">
-        <v>5.866197831157086</v>
+        <v>5.866197831157085</v>
       </c>
     </row>
     <row r="5457" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>22.30209059294719</v>
+        <v>22.30209059294718</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44111,7 +44111,7 @@
         <v>5471</v>
       </c>
       <c r="B5471">
-        <v>45.15111035824418</v>
+        <v>45.15111035824417</v>
       </c>
     </row>
     <row r="5472" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>9.729606798310272</v>
+        <v>9.72960679831027</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>40.89102974026287</v>
+        <v>40.89102974026286</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>60.90045490486622</v>
+        <v>60.90045490486621</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>70.98796005558972</v>
+        <v>70.98796005558971</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>85.61953166075739</v>
+        <v>85.61953166075737</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>76.88073942995339</v>
+        <v>76.88073942995338</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44383,7 +44383,7 @@
         <v>5505</v>
       </c>
       <c r="B5505">
-        <v>33.96429574150197</v>
+        <v>33.96429574150196</v>
       </c>
     </row>
     <row r="5506" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>51.83342311076152</v>
+        <v>51.83342311076151</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>75.50770161382499</v>
+        <v>75.50770161382498</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44559,7 +44559,7 @@
         <v>5527</v>
       </c>
       <c r="B5527">
-        <v>6.524054391640208</v>
+        <v>6.524054391640207</v>
       </c>
     </row>
     <row r="5528" spans="1:2">
@@ -44599,7 +44599,7 @@
         <v>5532</v>
       </c>
       <c r="B5532">
-        <v>67.3450870450292</v>
+        <v>67.34508704502919</v>
       </c>
     </row>
     <row r="5533" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>61.42534513510869</v>
+        <v>61.42534513510868</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44615,7 +44615,7 @@
         <v>5534</v>
       </c>
       <c r="B5534">
-        <v>61.09446793246003</v>
+        <v>61.09446793246002</v>
       </c>
     </row>
     <row r="5535" spans="1:2">
@@ -44639,7 +44639,7 @@
         <v>5537</v>
       </c>
       <c r="B5537">
-        <v>53.20939163727653</v>
+        <v>53.20939163727652</v>
       </c>
     </row>
     <row r="5538" spans="1:2">
@@ -44687,7 +44687,7 @@
         <v>5543</v>
       </c>
       <c r="B5543">
-        <v>57.85105074759492</v>
+        <v>57.85105074759491</v>
       </c>
     </row>
     <row r="5544" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>36.90907353797117</v>
+        <v>36.90907353797116</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>107.434860565592</v>
+        <v>107.4348605655919</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>48.08856137874685</v>
+        <v>48.08856137874684</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45023,7 +45023,7 @@
         <v>5585</v>
       </c>
       <c r="B5585">
-        <v>49.75730787288455</v>
+        <v>49.75730787288454</v>
       </c>
     </row>
     <row r="5586" spans="1:2">
@@ -45055,7 +45055,7 @@
         <v>5589</v>
       </c>
       <c r="B5589">
-        <v>83.94052768026654</v>
+        <v>83.94052768026653</v>
       </c>
     </row>
     <row r="5590" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>51.21152636672214</v>
+        <v>51.21152636672213</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45095,7 +45095,7 @@
         <v>5594</v>
       </c>
       <c r="B5594">
-        <v>42.89123957912655</v>
+        <v>42.89123957912654</v>
       </c>
     </row>
     <row r="5595" spans="1:2">
@@ -45135,7 +45135,7 @@
         <v>5599</v>
       </c>
       <c r="B5599">
-        <v>6.996895205416423</v>
+        <v>6.996895205416422</v>
       </c>
     </row>
     <row r="5600" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>27.62736720804703</v>
+        <v>27.62736720804702</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>65.66872070388631</v>
+        <v>65.66872070388629</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45255,7 +45255,7 @@
         <v>5614</v>
       </c>
       <c r="B5614">
-        <v>53.8207378239241</v>
+        <v>53.82073782392409</v>
       </c>
     </row>
     <row r="5615" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>56.14391194739258</v>
+        <v>56.14391194739257</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45519,7 +45519,7 @@
         <v>5647</v>
       </c>
       <c r="B5647">
-        <v>8.534375181337706</v>
+        <v>8.534375181337705</v>
       </c>
     </row>
     <row r="5648" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>57.85339531590421</v>
+        <v>57.8533953159042</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45591,7 +45591,7 @@
         <v>5656</v>
       </c>
       <c r="B5656">
-        <v>73.05176630984292</v>
+        <v>73.0517663098429</v>
       </c>
     </row>
     <row r="5657" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>39.21231883081068</v>
+        <v>39.21231883081067</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>44.56233064157354</v>
+        <v>44.56233064157353</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45831,7 +45831,7 @@
         <v>5686</v>
       </c>
       <c r="B5686">
-        <v>72.58285264798477</v>
+        <v>72.58285264798475</v>
       </c>
     </row>
     <row r="5687" spans="1:2">
@@ -45863,7 +45863,7 @@
         <v>5690</v>
       </c>
       <c r="B5690">
-        <v>37.31439078443981</v>
+        <v>37.3143907844398</v>
       </c>
     </row>
     <row r="5691" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>87.38000938999609</v>
+        <v>87.38000938999608</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -45999,7 +45999,7 @@
         <v>5707</v>
       </c>
       <c r="B5707">
-        <v>127.9003042663524</v>
+        <v>127.9003042663523</v>
       </c>
     </row>
     <row r="5708" spans="1:2">
@@ -46039,7 +46039,7 @@
         <v>5712</v>
       </c>
       <c r="B5712">
-        <v>66.0508853383007</v>
+        <v>66.05088533830069</v>
       </c>
     </row>
     <row r="5713" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>90.41622535052764</v>
+        <v>90.4162253505276</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>35.02638518561069</v>
+        <v>35.02638518561068</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>61.0279408066839</v>
+        <v>61.02794080668389</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>71.70393260303939</v>
+        <v>71.70393260303938</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>67.52796337315388</v>
+        <v>67.52796337315387</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>49.34173314006276</v>
+        <v>49.34173314006275</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46559,7 +46559,7 @@
         <v>5777</v>
       </c>
       <c r="B5777">
-        <v>78.3841938582861</v>
+        <v>78.38419385828608</v>
       </c>
     </row>
     <row r="5778" spans="1:2">
@@ -46575,7 +46575,7 @@
         <v>5779</v>
       </c>
       <c r="B5779">
-        <v>98.4894532525317</v>
+        <v>98.48945325253167</v>
       </c>
     </row>
     <row r="5780" spans="1:2">
@@ -46583,7 +46583,7 @@
         <v>5780</v>
       </c>
       <c r="B5780">
-        <v>77.23506231569496</v>
+        <v>77.23506231569495</v>
       </c>
     </row>
     <row r="5781" spans="1:2">
@@ -46591,7 +46591,7 @@
         <v>5781</v>
       </c>
       <c r="B5781">
-        <v>66.34893858461929</v>
+        <v>66.34893858461928</v>
       </c>
     </row>
     <row r="5782" spans="1:2">
@@ -46599,7 +46599,7 @@
         <v>5782</v>
       </c>
       <c r="B5782">
-        <v>58.360701283827</v>
+        <v>58.36070128382699</v>
       </c>
     </row>
     <row r="5783" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>5.856585101088994</v>
+        <v>5.856585101088993</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>22.68141243828657</v>
+        <v>22.68141243828656</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>41.8824890640542</v>
+        <v>41.88248906405419</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>94.44184913757988</v>
+        <v>94.44184913757984</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -46991,7 +46991,7 @@
         <v>5831</v>
       </c>
       <c r="B5831">
-        <v>70.78134497333347</v>
+        <v>70.78134497333346</v>
       </c>
     </row>
     <row r="5832" spans="1:2">
@@ -47039,7 +47039,7 @@
         <v>5837</v>
       </c>
       <c r="B5837">
-        <v>38.75131808699639</v>
+        <v>38.75131808699638</v>
       </c>
     </row>
     <row r="5838" spans="1:2">
@@ -47055,7 +47055,7 @@
         <v>5839</v>
       </c>
       <c r="B5839">
-        <v>5.85904689781375</v>
+        <v>5.859046897813749</v>
       </c>
     </row>
     <row r="5840" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>82.64896361288599</v>
+        <v>82.64896361288598</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47223,7 +47223,7 @@
         <v>5860</v>
       </c>
       <c r="B5860">
-        <v>37.49521561529386</v>
+        <v>37.49521561529385</v>
       </c>
     </row>
     <row r="5861" spans="1:2">
@@ -47231,7 +47231,7 @@
         <v>5861</v>
       </c>
       <c r="B5861">
-        <v>38.04794759420916</v>
+        <v>38.04794759420915</v>
       </c>
     </row>
     <row r="5862" spans="1:2">
@@ -47255,7 +47255,7 @@
         <v>5864</v>
       </c>
       <c r="B5864">
-        <v>36.99054728671902</v>
+        <v>36.99054728671901</v>
       </c>
     </row>
     <row r="5865" spans="1:2">
@@ -47367,7 +47367,7 @@
         <v>5878</v>
       </c>
       <c r="B5878">
-        <v>85.78980593421963</v>
+        <v>85.78980593421961</v>
       </c>
     </row>
     <row r="5879" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>48.39159683272268</v>
+        <v>48.39159683272267</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47599,7 +47599,7 @@
         <v>5907</v>
       </c>
       <c r="B5907">
-        <v>8.216451718597879</v>
+        <v>8.216451718597877</v>
       </c>
     </row>
     <row r="5908" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>5.750669227716784</v>
+        <v>5.750669227716783</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>23.51801302524925</v>
+        <v>23.51801302524924</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>4.041713387074747</v>
+        <v>4.041713387074746</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -47799,7 +47799,7 @@
         <v>5932</v>
       </c>
       <c r="B5932">
-        <v>3.372837355537959</v>
+        <v>3.372837355537958</v>
       </c>
     </row>
     <row r="5933" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>65.07261421124913</v>
+        <v>65.07261421124912</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>4.122600993745278</v>
+        <v>4.122600993745277</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>9.095459684854852</v>
+        <v>9.09545968485485</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48119,7 +48119,7 @@
         <v>5972</v>
       </c>
       <c r="B5972">
-        <v>67.79084809483311</v>
+        <v>67.79084809483309</v>
       </c>
     </row>
     <row r="5973" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>73.58896552370916</v>
+        <v>73.58896552370915</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>58.58724519671222</v>
+        <v>58.58724519671221</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48383,7 +48383,7 @@
         <v>6005</v>
       </c>
       <c r="B6005">
-        <v>35.49529884746884</v>
+        <v>35.49529884746883</v>
       </c>
     </row>
     <row r="6006" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>73.58427638709058</v>
+        <v>73.58427638709057</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48503,7 +48503,7 @@
         <v>6020</v>
       </c>
       <c r="B6020">
-        <v>81.234895851345</v>
+        <v>81.23489585134499</v>
       </c>
     </row>
     <row r="6021" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>60.07252922064792</v>
+        <v>60.07252922064791</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48743,7 +48743,7 @@
         <v>6050</v>
       </c>
       <c r="B6050">
-        <v>37.1461680082482</v>
+        <v>37.14616800824819</v>
       </c>
     </row>
     <row r="6051" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>7.997527652717854</v>
+        <v>7.997527652717853</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>36.37920110007146</v>
+        <v>36.37920110007145</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48959,7 +48959,7 @@
         <v>6077</v>
       </c>
       <c r="B6077">
-        <v>28.6094482586012</v>
+        <v>28.60944825860119</v>
       </c>
     </row>
     <row r="6078" spans="1:2">
@@ -48967,7 +48967,7 @@
         <v>6078</v>
       </c>
       <c r="B6078">
-        <v>30.50898819568471</v>
+        <v>30.5089881956847</v>
       </c>
     </row>
     <row r="6079" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>49.02316492103788</v>
+        <v>49.02316492103787</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>75.51502838979152</v>
+        <v>75.51502838979151</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49079,7 +49079,7 @@
         <v>6092</v>
       </c>
       <c r="B6092">
-        <v>73.11272508588448</v>
+        <v>73.11272508588446</v>
       </c>
     </row>
     <row r="6093" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>22.23204661470713</v>
+        <v>22.23204661470712</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>41.90271096572183</v>
+        <v>41.90271096572182</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -49455,7 +49455,7 @@
         <v>6139</v>
       </c>
       <c r="B6139">
-        <v>83.60144448853536</v>
+        <v>83.60144448853535</v>
       </c>
     </row>
     <row r="6140" spans="1:2">
@@ -49775,7 +49775,7 @@
         <v>6179</v>
       </c>
       <c r="B6179">
-        <v>32.02035554206127</v>
+        <v>32.02035554206126</v>
       </c>
     </row>
     <row r="6180" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>44.6361845433162</v>
+        <v>44.63618454331619</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>59.03036860716817</v>
+        <v>59.03036860716816</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49847,7 +49847,7 @@
         <v>6188</v>
       </c>
       <c r="B6188">
-        <v>60.90074797590488</v>
+        <v>60.90074797590487</v>
       </c>
     </row>
     <row r="6189" spans="1:2">
@@ -49975,7 +49975,7 @@
         <v>6204</v>
       </c>
       <c r="B6204">
-        <v>56.63334058195703</v>
+        <v>56.63334058195702</v>
       </c>
     </row>
     <row r="6205" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>54.21286687365298</v>
+        <v>54.21286687365297</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>4.915914988297674</v>
+        <v>4.915914988297673</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>50.11368225589674</v>
+        <v>50.11368225589673</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50279,7 +50279,7 @@
         <v>6242</v>
       </c>
       <c r="B6242">
-        <v>42.87336224576821</v>
+        <v>42.8733622457682</v>
       </c>
     </row>
     <row r="6243" spans="1:2">
@@ -50287,7 +50287,7 @@
         <v>6243</v>
       </c>
       <c r="B6243">
-        <v>41.5738852603438</v>
+        <v>41.57388526034379</v>
       </c>
     </row>
     <row r="6244" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>9.545851257069607</v>
+        <v>9.545851257069604</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>68.56777941832433</v>
+        <v>68.56777941832432</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>48.95194865864317</v>
+        <v>48.95194865864316</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>45.22203354960023</v>
+        <v>45.22203354960022</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>62.75530150855387</v>
+        <v>62.75530150855386</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50679,7 +50679,7 @@
         <v>6292</v>
       </c>
       <c r="B6292">
-        <v>35.77049255277184</v>
+        <v>35.77049255277183</v>
       </c>
     </row>
     <row r="6293" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>49.9123424523364</v>
+        <v>49.91234245233639</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>58.01898045274787</v>
+        <v>58.01898045274786</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>68.31808289338487</v>
+        <v>68.31808289338485</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>85.36455985712202</v>
+        <v>85.364559857122</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>6.149978517892866</v>
+        <v>6.149978517892865</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>70.00499979191957</v>
+        <v>70.00499979191956</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51015,7 +51015,7 @@
         <v>6334</v>
       </c>
       <c r="B6334">
-        <v>27.08855610346815</v>
+        <v>27.08855610346814</v>
       </c>
     </row>
     <row r="6335" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>8.951591111975997</v>
+        <v>8.951591111975995</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51079,7 +51079,7 @@
         <v>6342</v>
       </c>
       <c r="B6342">
-        <v>2.144081342452923</v>
+        <v>2.144081342452922</v>
       </c>
     </row>
     <row r="6343" spans="1:2">
@@ -51167,7 +51167,7 @@
         <v>6353</v>
       </c>
       <c r="B6353">
-        <v>21.92332558258127</v>
+        <v>21.92332558258126</v>
       </c>
     </row>
     <row r="6354" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>6.538971707508071</v>
+        <v>6.53897170750807</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51279,7 +51279,7 @@
         <v>6367</v>
       </c>
       <c r="B6367">
-        <v>3.508060332776304</v>
+        <v>3.508060332776303</v>
       </c>
     </row>
     <row r="6368" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>8.95346676662343</v>
+        <v>8.953466766623428</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>50.46771207059965</v>
+        <v>50.46771207059964</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>7.660935564815299</v>
+        <v>7.660935564815298</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>6.346570570626898</v>
+        <v>6.346570570626897</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>12.57954680666866</v>
+        <v>12.57954680666865</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51759,7 +51759,7 @@
         <v>6427</v>
       </c>
       <c r="B6427">
-        <v>42.10639533759147</v>
+        <v>42.10639533759146</v>
       </c>
     </row>
     <row r="6428" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>4.696844386898318</v>
+        <v>4.696844386898317</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -52007,7 +52007,7 @@
         <v>6458</v>
       </c>
       <c r="B6458">
-        <v>5.600118635156451</v>
+        <v>5.60011863515645</v>
       </c>
     </row>
     <row r="6459" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>5.304732335289681</v>
+        <v>5.30473233528968</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>55.75676510532095</v>
+        <v>55.75676510532094</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>3.185887339975887</v>
+        <v>3.185887339975886</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>3.77170703915605</v>
+        <v>3.771707039156049</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52359,7 +52359,7 @@
         <v>6502</v>
       </c>
       <c r="B6502">
-        <v>39.68885233967403</v>
+        <v>39.68885233967402</v>
       </c>
     </row>
     <row r="6503" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>9.6031466451279</v>
+        <v>9.603146645127898</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52495,7 +52495,7 @@
         <v>6519</v>
       </c>
       <c r="B6519">
-        <v>58.45477708723729</v>
+        <v>58.45477708723728</v>
       </c>
     </row>
     <row r="6520" spans="1:2">
@@ -52599,7 +52599,7 @@
         <v>6532</v>
       </c>
       <c r="B6532">
-        <v>13.56444133919398</v>
+        <v>13.56444133919397</v>
       </c>
     </row>
     <row r="6533" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>3.937526632830639</v>
+        <v>3.937526632830638</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52631,7 +52631,7 @@
         <v>6536</v>
       </c>
       <c r="B6536">
-        <v>4.585887691661133</v>
+        <v>4.585887691661132</v>
       </c>
     </row>
     <row r="6537" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>37.94859651210296</v>
+        <v>37.94859651210295</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>33.13871462559296</v>
+        <v>33.13871462559295</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52783,7 +52783,7 @@
         <v>6555</v>
       </c>
       <c r="B6555">
-        <v>5.772737476927984</v>
+        <v>5.772737476927983</v>
       </c>
     </row>
     <row r="6556" spans="1:2">
@@ -52855,7 +52855,7 @@
         <v>6564</v>
       </c>
       <c r="B6564">
-        <v>6.048898316658569</v>
+        <v>6.048898316658568</v>
       </c>
     </row>
     <row r="6565" spans="1:2">
@@ -52879,7 +52879,7 @@
         <v>6567</v>
       </c>
       <c r="B6567">
-        <v>7.937653239519341</v>
+        <v>7.93765323951934</v>
       </c>
     </row>
     <row r="6568" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>38.83513640405353</v>
+        <v>38.83513640405352</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -52943,7 +52943,7 @@
         <v>6575</v>
       </c>
       <c r="B6575">
-        <v>8.783895863653976</v>
+        <v>8.783895863653974</v>
       </c>
     </row>
     <row r="6576" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>3.214725530180163</v>
+        <v>3.214725530180162</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53095,7 +53095,7 @@
         <v>6594</v>
       </c>
       <c r="B6594">
-        <v>89.52939238753839</v>
+        <v>89.52939238753838</v>
       </c>
     </row>
     <row r="6595" spans="1:2">
@@ -53159,7 +53159,7 @@
         <v>6602</v>
       </c>
       <c r="B6602">
-        <v>22.18694298185715</v>
+        <v>22.18694298185714</v>
       </c>
     </row>
     <row r="6603" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>48.20784129148201</v>
+        <v>48.207841291482</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>55.39277087530356</v>
+        <v>55.39277087530355</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53255,7 +53255,7 @@
         <v>6614</v>
       </c>
       <c r="B6614">
-        <v>71.27077360789792</v>
+        <v>71.27077360789791</v>
       </c>
     </row>
     <row r="6615" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>16.42282179346581</v>
+        <v>16.4228217934658</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>44.71531372375476</v>
+        <v>44.71531372375475</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53519,7 +53519,7 @@
         <v>6647</v>
       </c>
       <c r="B6647">
-        <v>35.31681858492408</v>
+        <v>35.31681858492407</v>
       </c>
     </row>
     <row r="6648" spans="1:2">
@@ -53551,7 +53551,7 @@
         <v>6651</v>
       </c>
       <c r="B6651">
-        <v>11.10088618820671</v>
+        <v>11.1008861882067</v>
       </c>
     </row>
     <row r="6652" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>8.666843290812634</v>
+        <v>8.666843290812633</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>55.74181848234922</v>
+        <v>55.74181848234921</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>66.84569399515027</v>
+        <v>66.84569399515026</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53903,7 +53903,7 @@
         <v>6695</v>
       </c>
       <c r="B6695">
-        <v>6.760709255359244</v>
+        <v>6.760709255359243</v>
       </c>
     </row>
     <row r="6696" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>1.771415140401543</v>
+        <v>1.771415140401542</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>2.122300302859612</v>
+        <v>2.122300302859611</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>2.616010705298901</v>
+        <v>2.6160107052989</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54103,7 +54103,7 @@
         <v>6720</v>
       </c>
       <c r="B6720">
-        <v>1.932700925108041</v>
+        <v>1.93270092510804</v>
       </c>
     </row>
     <row r="6721" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>18.5767180850035</v>
+        <v>18.57671808500349</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>22.64255121856008</v>
+        <v>22.64255121856007</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>1.58653420637242</v>
+        <v>1.586534206372419</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>42.73591192863604</v>
+        <v>42.73591192863603</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>61.39955488370649</v>
+        <v>61.39955488370648</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>6.564586116287072</v>
+        <v>6.564586116287071</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>5.21519913297864</v>
+        <v>5.215199132978639</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54839,7 +54839,7 @@
         <v>6812</v>
       </c>
       <c r="B6812">
-        <v>54.90363531177777</v>
+        <v>54.90363531177776</v>
       </c>
     </row>
     <row r="6813" spans="1:2">
@@ -54847,7 +54847,7 @@
         <v>6813</v>
       </c>
       <c r="B6813">
-        <v>46.54700771538817</v>
+        <v>46.54700771538816</v>
       </c>
     </row>
     <row r="6814" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>6.89918532112673</v>
+        <v>6.899185321126729</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>6.263191860127745</v>
+        <v>6.263191860127744</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54911,7 +54911,7 @@
         <v>6821</v>
       </c>
       <c r="B6821">
-        <v>6.021496174543733</v>
+        <v>6.021496174543732</v>
       </c>
     </row>
     <row r="6822" spans="1:2">
@@ -55095,7 +55095,7 @@
         <v>6844</v>
       </c>
       <c r="B6844">
-        <v>9.793584206050042</v>
+        <v>9.79358420605004</v>
       </c>
     </row>
     <row r="6845" spans="1:2">
@@ -55167,7 +55167,7 @@
         <v>6853</v>
       </c>
       <c r="B6853">
-        <v>68.85791974659907</v>
+        <v>68.85791974659905</v>
       </c>
     </row>
     <row r="6854" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>74.21818904371507</v>
+        <v>74.21818904371506</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55191,7 +55191,7 @@
         <v>6856</v>
       </c>
       <c r="B6856">
-        <v>58.51075365562161</v>
+        <v>58.5107536556216</v>
       </c>
     </row>
     <row r="6857" spans="1:2">
@@ -55367,7 +55367,7 @@
         <v>6878</v>
       </c>
       <c r="B6878">
-        <v>31.69973582576576</v>
+        <v>31.69973582576575</v>
       </c>
     </row>
     <row r="6879" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>39.83890471146864</v>
+        <v>39.83890471146863</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>7.607274257636406</v>
+        <v>7.607274257636405</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>4.248973225616051</v>
+        <v>4.24897322561605</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>3.998719865703128</v>
+        <v>3.998719865703127</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55559,7 +55559,7 @@
         <v>6902</v>
       </c>
       <c r="B6902">
-        <v>44.25929518759771</v>
+        <v>44.2592951875977</v>
       </c>
     </row>
     <row r="6903" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>49.163252877518</v>
+        <v>49.16325287751799</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>29.40205888266081</v>
+        <v>29.4020588826608</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>7.339290099884472</v>
+        <v>7.339290099884471</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55663,7 +55663,7 @@
         <v>6915</v>
       </c>
       <c r="B6915">
-        <v>4.27323950761721</v>
+        <v>4.273239507617209</v>
       </c>
     </row>
     <row r="6916" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>4.55247759325374</v>
+        <v>4.552477593253739</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>25.80751328637554</v>
+        <v>25.80751328637553</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55799,7 +55799,7 @@
         <v>6932</v>
       </c>
       <c r="B6932">
-        <v>27.9173903079063</v>
+        <v>27.91739030790629</v>
       </c>
     </row>
     <row r="6933" spans="1:2">
@@ -55983,7 +55983,7 @@
         <v>6955</v>
       </c>
       <c r="B6955">
-        <v>27.74749702679432</v>
+        <v>27.74749702679431</v>
       </c>
     </row>
     <row r="6956" spans="1:2">
@@ -55991,7 +55991,7 @@
         <v>6956</v>
       </c>
       <c r="B6956">
-        <v>21.25058101333415</v>
+        <v>21.25058101333414</v>
       </c>
     </row>
     <row r="6957" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>7.077606969463757</v>
+        <v>7.077606969463756</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56167,7 +56167,7 @@
         <v>6978</v>
       </c>
       <c r="B6978">
-        <v>35.43404700038862</v>
+        <v>35.43404700038861</v>
       </c>
     </row>
     <row r="6979" spans="1:2">
@@ -56383,7 +56383,7 @@
         <v>7005</v>
       </c>
       <c r="B7005">
-        <v>20.85871572754007</v>
+        <v>20.85871572754006</v>
       </c>
     </row>
     <row r="7006" spans="1:2">
@@ -56399,7 +56399,7 @@
         <v>7007</v>
       </c>
       <c r="B7007">
-        <v>9.724888354587822</v>
+        <v>9.72488835458782</v>
       </c>
     </row>
     <row r="7008" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>2.052121511941766</v>
+        <v>2.052121511941765</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>4.132770558786827</v>
+        <v>4.132770558786826</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56663,7 +56663,7 @@
         <v>7040</v>
       </c>
       <c r="B7040">
-        <v>4.798950336767931</v>
+        <v>4.79895033676793</v>
       </c>
     </row>
     <row r="7041" spans="1:2">
@@ -56711,7 +56711,7 @@
         <v>7046</v>
       </c>
       <c r="B7046">
-        <v>53.89986700436266</v>
+        <v>53.89986700436265</v>
       </c>
     </row>
     <row r="7047" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>57.16086845154745</v>
+        <v>57.16086845154744</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56759,7 +56759,7 @@
         <v>7052</v>
       </c>
       <c r="B7052">
-        <v>52.94914455494526</v>
+        <v>52.94914455494525</v>
       </c>
     </row>
     <row r="7053" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>7.456137522998751</v>
+        <v>7.45613752299875</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>21.49239392733363</v>
+        <v>21.49239392733362</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>43.94834681557802</v>
+        <v>43.94834681557801</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>61.49157918984615</v>
+        <v>61.49157918984614</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>77.94048430575282</v>
+        <v>77.9404843057528</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -56967,7 +56967,7 @@
         <v>7078</v>
       </c>
       <c r="B7078">
-        <v>40.72310003510992</v>
+        <v>40.72310003510991</v>
       </c>
     </row>
     <row r="7079" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>11.10261530733481</v>
+        <v>11.1026153073348</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>8.910737009186606</v>
+        <v>8.910737009186604</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57159,7 +57159,7 @@
         <v>7102</v>
       </c>
       <c r="B7102">
-        <v>56.19021717150108</v>
+        <v>56.19021717150107</v>
       </c>
     </row>
     <row r="7103" spans="1:2">
@@ -57199,7 +57199,7 @@
         <v>7107</v>
       </c>
       <c r="B7107">
-        <v>23.28508016372121</v>
+        <v>23.2850801637212</v>
       </c>
     </row>
     <row r="7108" spans="1:2">
@@ -57207,7 +57207,7 @@
         <v>7108</v>
       </c>
       <c r="B7108">
-        <v>20.84154176467451</v>
+        <v>20.8415417646745</v>
       </c>
     </row>
     <row r="7109" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>21.03907164473226</v>
+        <v>21.03907164473225</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>37.89760215137589</v>
+        <v>37.89760215137588</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>65.27336787273215</v>
+        <v>65.27336787273214</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>73.13792919520935</v>
+        <v>73.13792919520934</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57335,7 +57335,7 @@
         <v>7124</v>
       </c>
       <c r="B7124">
-        <v>75.8283213301205</v>
+        <v>75.82832133012049</v>
       </c>
     </row>
     <row r="7125" spans="1:2">
@@ -57351,7 +57351,7 @@
         <v>7126</v>
       </c>
       <c r="B7126">
-        <v>59.7337390999554</v>
+        <v>59.73373909995539</v>
       </c>
     </row>
     <row r="7127" spans="1:2">
@@ -57359,7 +57359,7 @@
         <v>7127</v>
       </c>
       <c r="B7127">
-        <v>53.45351981248143</v>
+        <v>53.45351981248142</v>
       </c>
     </row>
     <row r="7128" spans="1:2">
@@ -57367,7 +57367,7 @@
         <v>7128</v>
       </c>
       <c r="B7128">
-        <v>51.14558538302334</v>
+        <v>51.14558538302333</v>
       </c>
     </row>
     <row r="7129" spans="1:2">
@@ -57383,7 +57383,7 @@
         <v>7130</v>
       </c>
       <c r="B7130">
-        <v>39.7345714217052</v>
+        <v>39.73457142170519</v>
       </c>
     </row>
     <row r="7131" spans="1:2">
@@ -57415,7 +57415,7 @@
         <v>7134</v>
       </c>
       <c r="B7134">
-        <v>39.11033010935653</v>
+        <v>39.11033010935652</v>
       </c>
     </row>
     <row r="7135" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>38.63907187918909</v>
+        <v>38.63907187918908</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>65.16669001465942</v>
+        <v>65.16669001465941</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -57527,7 +57527,7 @@
         <v>7148</v>
       </c>
       <c r="B7148">
-        <v>51.24229882578158</v>
+        <v>51.24229882578157</v>
       </c>
     </row>
     <row r="7149" spans="1:2">
@@ -57599,7 +57599,7 @@
         <v>7157</v>
       </c>
       <c r="B7157">
-        <v>3.180524139968384</v>
+        <v>3.180524139968383</v>
       </c>
     </row>
     <row r="7158" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>13.50869922764059</v>
+        <v>13.50869922764058</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -57783,7 +57783,7 @@
         <v>7180</v>
       </c>
       <c r="B7180">
-        <v>1.698806790573195</v>
+        <v>1.698806790573194</v>
       </c>
     </row>
     <row r="7181" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>1.74478963653916</v>
+        <v>1.744789636539159</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>7.57881705978239</v>
+        <v>7.578817059782389</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57855,7 +57855,7 @@
         <v>7189</v>
       </c>
       <c r="B7189">
-        <v>6.913926794371395</v>
+        <v>6.913926794371394</v>
       </c>
     </row>
     <row r="7190" spans="1:2">
@@ -57887,7 +57887,7 @@
         <v>7193</v>
       </c>
       <c r="B7193">
-        <v>5.989815195264441</v>
+        <v>5.98981519526444</v>
       </c>
     </row>
     <row r="7194" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>1.312732588503058</v>
+        <v>1.312732588503057</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58031,7 +58031,7 @@
         <v>7211</v>
       </c>
       <c r="B7211">
-        <v>8.050866581754219</v>
+        <v>8.050866581754217</v>
       </c>
     </row>
     <row r="7212" spans="1:2">
@@ -58111,7 +58111,7 @@
         <v>7221</v>
       </c>
       <c r="B7221">
-        <v>4.69584794536687</v>
+        <v>4.695847945366869</v>
       </c>
     </row>
     <row r="7222" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>2.507521668207244</v>
+        <v>2.507521668207243</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>9.310134220674287</v>
+        <v>9.310134220674286</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>5.454433021837896</v>
+        <v>5.454433021837895</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>3.378259169753194</v>
+        <v>3.378259169753193</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>25.51326996355955</v>
+        <v>25.51326996355954</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>5.627901769621547</v>
+        <v>5.627901769621546</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58959,7 +58959,7 @@
         <v>7327</v>
       </c>
       <c r="B7327">
-        <v>1.440637581906029</v>
+        <v>1.440637581906028</v>
       </c>
     </row>
     <row r="7328" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>17.90045666329245</v>
+        <v>17.90045666329244</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>1.391477845880975</v>
+        <v>1.391477845880974</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>25.34768482671589</v>
+        <v>25.34768482671588</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>3.41846851625753</v>
+        <v>3.418468516257529</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>3.000754364853515</v>
+        <v>3.000754364853514</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>4.386951070617812</v>
+        <v>4.386951070617811</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59839,7 +59839,7 @@
         <v>7437</v>
       </c>
       <c r="B7437">
-        <v>6.160441153973077</v>
+        <v>6.160441153973076</v>
       </c>
     </row>
     <row r="7438" spans="1:2">
@@ -59895,7 +59895,7 @@
         <v>7444</v>
       </c>
       <c r="B7444">
-        <v>1.183315348540595</v>
+        <v>1.183315348540594</v>
       </c>
     </row>
     <row r="7445" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>2.940235195369947</v>
+        <v>2.940235195369946</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>9.180245136339581</v>
+        <v>9.180245136339575</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>0.933270069065121</v>
+        <v>0.9332700690651208</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>0.977245378416256</v>
+        <v>0.9772453784162558</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>4.669735315822144</v>
+        <v>4.669735315822143</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>2.504775592574987</v>
+        <v>2.504775592574986</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>14.5013894497943</v>
+        <v>14.50138944979429</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60823,7 +60823,7 @@
         <v>7560</v>
       </c>
       <c r="B7560">
-        <v>3.10124842401049</v>
+        <v>3.101248424010489</v>
       </c>
     </row>
     <row r="7561" spans="1:2">
@@ -60927,7 +60927,7 @@
         <v>7573</v>
       </c>
       <c r="B7573">
-        <v>21.05908839667283</v>
+        <v>21.05908839667282</v>
       </c>
     </row>
     <row r="7574" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>0.4049831454845666</v>
+        <v>0.4049831454845665</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>0.8193006035504972</v>
+        <v>0.8193006035504971</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>0.8791281253828241</v>
+        <v>0.879128125382824</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>0.5856116187427136</v>
+        <v>0.5856116187427135</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>3.373452804719148</v>
+        <v>3.373452804719147</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -61799,7 +61799,7 @@
         <v>7682</v>
       </c>
       <c r="B7682">
-        <v>1.692693328706719</v>
+        <v>1.692693328706718</v>
       </c>
     </row>
     <row r="7683" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>0.9867115729650174</v>
+        <v>0.9867115729650172</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>0.9502447436243862</v>
+        <v>0.950244743624386</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62095,7 +62095,7 @@
         <v>7719</v>
       </c>
       <c r="B7719">
-        <v>5.96677981162566</v>
+        <v>5.966779811625659</v>
       </c>
     </row>
     <row r="7720" spans="1:2">
@@ -62127,7 +62127,7 @@
         <v>7723</v>
       </c>
       <c r="B7723">
-        <v>1.348686543526032</v>
+        <v>1.348686543526031</v>
       </c>
     </row>
     <row r="7724" spans="1:2">
@@ -62375,7 +62375,7 @@
         <v>7754</v>
       </c>
       <c r="B7754">
-        <v>0.898462021803313</v>
+        <v>0.8984620218033129</v>
       </c>
     </row>
     <row r="7755" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>0.724172675111411</v>
+        <v>0.7241726751114109</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>0.8628421677644131</v>
+        <v>0.862842167764413</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62455,7 +62455,7 @@
         <v>7764</v>
       </c>
       <c r="B7764">
-        <v>0.1491614358370783</v>
+        <v>0.1491614358370782</v>
       </c>
     </row>
     <row r="7765" spans="1:2">
@@ -62575,7 +62575,7 @@
         <v>7779</v>
       </c>
       <c r="B7779">
-        <v>0.775706286549622</v>
+        <v>0.7757062865496219</v>
       </c>
     </row>
     <row r="7780" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>0.8567843893952831</v>
+        <v>0.856784389395283</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>1.260724201982216</v>
+        <v>1.260724201982215</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62775,7 +62775,7 @@
         <v>7804</v>
       </c>
       <c r="B7804">
-        <v>0.58525993349632</v>
+        <v>0.5852599334963199</v>
       </c>
     </row>
     <row r="7805" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>2.423586122734635</v>
+        <v>2.423586122734634</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -62847,7 +62847,7 @@
         <v>7813</v>
       </c>
       <c r="B7813">
-        <v>4.076061312805857</v>
+        <v>4.076061312805856</v>
       </c>
     </row>
     <row r="7814" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>0.1870414537261345</v>
+        <v>0.1870414537261344</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>0.048282281335302</v>
+        <v>0.0482822813353019</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62935,7 +62935,7 @@
         <v>7824</v>
       </c>
       <c r="B7824">
-        <v>0.9624101224392186</v>
+        <v>0.9624101224392184</v>
       </c>
     </row>
     <row r="7825" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>0.8246608728476131</v>
+        <v>0.824660872847613</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>0.753362550562081</v>
+        <v>0.7533625505620809</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>0.0718759653027336</v>
+        <v>0.0718759653027335</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>5.392477804264888</v>
+        <v>5.392477804264887</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63135,7 +63135,7 @@
         <v>7849</v>
       </c>
       <c r="B7849">
-        <v>0.6873424376828398</v>
+        <v>0.6873424376828396</v>
       </c>
     </row>
     <row r="7850" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>0.5805561433258054</v>
+        <v>0.5805561433258053</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>0.5454491636045629</v>
+        <v>0.5454491636045627</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>4.477304871837105</v>
+        <v>4.477304871837104</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>0.8879466329361441</v>
+        <v>0.887946632936144</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>0.6825272805176339</v>
+        <v>0.6825272805176338</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>0.2792281212212153</v>
+        <v>0.2792281212212152</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63503,7 +63503,7 @@
         <v>7895</v>
       </c>
       <c r="B7895">
-        <v>1.708190925231131</v>
+        <v>1.70819092523113</v>
       </c>
     </row>
     <row r="7896" spans="1:2">
@@ -63663,7 +63663,7 @@
         <v>7915</v>
       </c>
       <c r="B7915">
-        <v>1.991089468140541</v>
+        <v>1.99108946814054</v>
       </c>
     </row>
     <row r="7916" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>6.076036694838609</v>
+        <v>6.076036694838608</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>6.453453578426689</v>
+        <v>6.453453578426688</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63863,7 +63863,7 @@
         <v>7940</v>
       </c>
       <c r="B7940">
-        <v>6.073838662048649</v>
+        <v>6.073838662048648</v>
       </c>
     </row>
     <row r="7941" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>0.4556082367029274</v>
+        <v>0.4556082367029273</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>3.744920346222402</v>
+        <v>3.744920346222401</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64239,7 +64239,7 @@
         <v>7987</v>
       </c>
       <c r="B7987">
-        <v>1.451138317221265</v>
+        <v>1.451138317221264</v>
       </c>
     </row>
     <row r="7988" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>2.276051231162127</v>
+        <v>2.276051231162126</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>1.61499726564721</v>
+        <v>1.614997265647209</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>0.5104007980910525</v>
+        <v>0.5104007980910524</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>1.777906663907892</v>
+        <v>1.777906663907891</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>7.253742663699225</v>
+        <v>7.253742663699224</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>6.541081818986432</v>
+        <v>6.541081818986431</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>2.565778329272346</v>
+        <v>2.565778329272345</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>2.169654721286512</v>
+        <v>2.169654721286511</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>7.010142016363915</v>
+        <v>7.010142016363914</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65399,7 +65399,7 @@
         <v>8132</v>
       </c>
       <c r="B8132">
-        <v>35.08763703269091</v>
+        <v>35.0876370326909</v>
       </c>
     </row>
     <row r="8133" spans="1:2">
@@ -65607,7 +65607,7 @@
         <v>8158</v>
       </c>
       <c r="B8158">
-        <v>43.58640408283126</v>
+        <v>43.58640408283125</v>
       </c>
     </row>
     <row r="8159" spans="1:2">
@@ -65615,7 +65615,7 @@
         <v>8159</v>
       </c>
       <c r="B8159">
-        <v>38.38673771490167</v>
+        <v>38.38673771490166</v>
       </c>
     </row>
     <row r="8160" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>21.46238345297471</v>
+        <v>21.4623834529747</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>0.7507278419245156</v>
+        <v>0.7507278419245155</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -65967,7 +65967,7 @@
         <v>8203</v>
       </c>
       <c r="B8203">
-        <v>1.573539436518176</v>
+        <v>1.573539436518175</v>
       </c>
     </row>
     <row r="8204" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>3.629919270651691</v>
+        <v>3.62991927065169</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>1.55660872261471</v>
+        <v>1.556608722614709</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>4.556961580145258</v>
+        <v>4.556961580145257</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66407,7 +66407,7 @@
         <v>8258</v>
       </c>
       <c r="B8258">
-        <v>1.666993929326506</v>
+        <v>1.666993929326505</v>
       </c>
     </row>
     <row r="8259" spans="1:2">
@@ -66551,7 +66551,7 @@
         <v>8276</v>
       </c>
       <c r="B8276">
-        <v>5.054654817999955</v>
+        <v>5.054654817999954</v>
       </c>
     </row>
     <row r="8277" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>4.160524386148056</v>
+        <v>4.160524386148055</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>3.330869582801654</v>
+        <v>3.330869582801653</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>0.9395036900574478</v>
+        <v>0.9395036900574476</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>1.368899653062505</v>
+        <v>1.368899653062504</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>4.292640810376591</v>
+        <v>4.29264081037659</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>1.784872962496872</v>
+        <v>1.784872962496871</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>5.228504558133865</v>
+        <v>5.228504558133864</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67303,7 +67303,7 @@
         <v>8370</v>
       </c>
       <c r="B8370">
-        <v>0.5808345608125337</v>
+        <v>0.5808345608125336</v>
       </c>
     </row>
     <row r="8371" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>4.912486057145336</v>
+        <v>4.912486057145335</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>4.252871070430246</v>
+        <v>4.252871070430245</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>0.9000123675978315</v>
+        <v>0.9000123675978314</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>0.9301224861098982</v>
+        <v>0.930122486109898</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>1.280031722009225</v>
+        <v>1.280031722009224</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>0.2760295439052654</v>
+        <v>0.2760295439052653</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>1.255847499898891</v>
+        <v>1.25584749989889</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>8.258507412645782</v>
+        <v>8.25850741264578</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>2.059369158727861</v>
+        <v>2.05936915872786</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>8.039436811246427</v>
+        <v>8.039436811246425</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68079,7 +68079,7 @@
         <v>8467</v>
       </c>
       <c r="B8467">
-        <v>3.307130828670085</v>
+        <v>3.307130828670084</v>
       </c>
     </row>
     <row r="8468" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>1.850787569802195</v>
+        <v>1.850787569802194</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>2.753285179807875</v>
+        <v>2.753285179807874</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>0.3525556673784386</v>
+        <v>0.3525556673784385</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>0.2440276518386398</v>
+        <v>0.2440276518386397</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>0.09680781163269291</v>
+        <v>0.09680781163269279</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>0.6845084407389845</v>
+        <v>0.6845084407389844</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>0.6099511685035383</v>
+        <v>0.6099511685035381</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>0.8561454945310014</v>
+        <v>0.8561454945310013</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -69087,7 +69087,7 @@
         <v>8593</v>
       </c>
       <c r="B8593">
-        <v>0.7817464806564323</v>
+        <v>0.7817464806564322</v>
       </c>
     </row>
     <row r="8594" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>0.7205004949969843</v>
+        <v>0.7205004949969842</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>0.6017070801859947</v>
+        <v>0.6017070801859946</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69287,7 +69287,7 @@
         <v>8618</v>
       </c>
       <c r="B8618">
-        <v>0.502353067369412</v>
+        <v>0.5023530673694119</v>
       </c>
     </row>
     <row r="8619" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>0.9547932061444102</v>
+        <v>0.95479320614441</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>0.861880894757604</v>
+        <v>0.8618808947576039</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>0.6718536332895877</v>
+        <v>0.6718536332895876</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>0.8516615076394828</v>
+        <v>0.8516615076394827</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>0.5126545143783583</v>
+        <v>0.5126545143783582</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>0.52963211964801</v>
+        <v>0.5296321196480099</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>0.7797506668831485</v>
+        <v>0.7797506668831484</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
